--- a/src/attributions/attributions_ig_traj_124.xlsx
+++ b/src/attributions/attributions_ig_traj_124.xlsx
@@ -1576,13 +1576,13 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>-0</v>
@@ -1603,13 +1603,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>-0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
       </c>
       <c r="AE3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AF3" t="n">
         <v>-0</v>
@@ -1684,13 +1684,13 @@
         <v>0</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM3" t="n">
         <v>0</v>
       </c>
       <c r="AN3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AO3" t="n">
         <v>-0</v>
@@ -1711,13 +1711,13 @@
         <v>0</v>
       </c>
       <c r="AU3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV3" t="n">
         <v>0</v>
       </c>
       <c r="AW3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AX3" t="n">
         <v>-0</v>
@@ -1738,13 +1738,13 @@
         <v>0</v>
       </c>
       <c r="BD3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE3" t="n">
         <v>0</v>
       </c>
       <c r="BF3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BG3" t="n">
         <v>-0</v>
@@ -1765,13 +1765,13 @@
         <v>0</v>
       </c>
       <c r="BM3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN3" t="n">
         <v>0</v>
       </c>
       <c r="BO3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BP3" t="n">
         <v>-0</v>
@@ -1819,13 +1819,13 @@
         <v>0</v>
       </c>
       <c r="CE3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF3" t="n">
         <v>0</v>
       </c>
       <c r="CG3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CH3" t="n">
         <v>-0</v>
@@ -1846,13 +1846,13 @@
         <v>0</v>
       </c>
       <c r="CN3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO3" t="n">
         <v>0</v>
       </c>
       <c r="CP3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CQ3" t="n">
         <v>-0</v>
@@ -1900,13 +1900,13 @@
         <v>0</v>
       </c>
       <c r="DF3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG3" t="n">
         <v>0</v>
       </c>
       <c r="DH3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DI3" t="n">
         <v>-0</v>
@@ -1927,13 +1927,13 @@
         <v>0</v>
       </c>
       <c r="DO3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP3" t="n">
         <v>0</v>
       </c>
       <c r="DQ3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DR3" t="n">
         <v>-0</v>
@@ -1981,13 +1981,13 @@
         <v>0</v>
       </c>
       <c r="EG3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH3" t="n">
         <v>0</v>
       </c>
       <c r="EI3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EJ3" t="n">
         <v>-0</v>
@@ -2008,13 +2008,13 @@
         <v>0</v>
       </c>
       <c r="EP3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ3" t="n">
         <v>0</v>
       </c>
       <c r="ER3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ES3" t="n">
         <v>-0</v>
@@ -2035,13 +2035,13 @@
         <v>0</v>
       </c>
       <c r="EY3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ3" t="n">
         <v>0</v>
       </c>
       <c r="FA3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FB3" t="n">
         <v>-0</v>
@@ -2062,13 +2062,13 @@
         <v>0</v>
       </c>
       <c r="FH3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FI3" t="n">
         <v>0</v>
       </c>
       <c r="FJ3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FK3" t="n">
         <v>-0</v>
@@ -2145,19 +2145,19 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.004967173877547639</v>
+        <v>0.01788723902997303</v>
       </c>
       <c r="C4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.03831028395609726</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.007839778591239516</v>
+        <v>-0.006169121784241308</v>
       </c>
       <c r="F4" t="n">
-        <v>-0</v>
+        <v>-0.002978984062430998</v>
       </c>
       <c r="G4" t="n">
         <v>-0</v>
@@ -2169,22 +2169,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.02129811646859531</v>
+        <v>0.003630472437013819</v>
       </c>
       <c r="L4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0.01840875658321953</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.009241101479425883</v>
+        <v>-0.01352316813380628</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>-0.01292427561445731</v>
       </c>
       <c r="P4" t="n">
         <v>-0</v>
@@ -2196,22 +2196,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>-0.005185170010175767</v>
+        <v>-0.0002748582623588493</v>
       </c>
       <c r="U4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0.01516345865786203</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0.05495069914500562</v>
+        <v>0.006198934832838443</v>
       </c>
       <c r="X4" t="n">
-        <v>-0</v>
+        <v>-0.01267333769764911</v>
       </c>
       <c r="Y4" t="n">
         <v>-0</v>
@@ -2220,25 +2220,25 @@
         <v>0</v>
       </c>
       <c r="AA4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC4" t="n">
-        <v>-0.07167603497503341</v>
+        <v>0.0209208255987431</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.1001024775360409</v>
+        <v>-0</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.0002595196777703006</v>
+        <v>0.02286361699571059</v>
       </c>
       <c r="AG4" t="n">
-        <v>0</v>
+        <v>0.006667677357716609</v>
       </c>
       <c r="AH4" t="n">
         <v>0</v>
@@ -2253,46 +2253,46 @@
         <v>0</v>
       </c>
       <c r="AL4" t="n">
-        <v>-0.01516431833337312</v>
+        <v>0.005186733565645832</v>
       </c>
       <c r="AM4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN4" t="n">
-        <v>0.002118380684130402</v>
+        <v>0</v>
       </c>
       <c r="AO4" t="n">
-        <v>-0.003043483199039759</v>
+        <v>-0.01038175631493995</v>
       </c>
       <c r="AP4" t="n">
-        <v>-0</v>
+        <v>-0.002389904053734298</v>
       </c>
       <c r="AQ4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU4" t="n">
-        <v>-0.07614303616269427</v>
+        <v>0.06045263325550686</v>
       </c>
       <c r="AV4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AW4" t="n">
-        <v>0.02017974725781728</v>
+        <v>0</v>
       </c>
       <c r="AX4" t="n">
-        <v>-0.06726803665716723</v>
+        <v>-0.03360753664806899</v>
       </c>
       <c r="AY4" t="n">
-        <v>0</v>
+        <v>-0.01193455352780415</v>
       </c>
       <c r="AZ4" t="n">
         <v>0</v>
@@ -2304,49 +2304,49 @@
         <v>0</v>
       </c>
       <c r="BC4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD4" t="n">
-        <v>-0.01161583842101641</v>
+        <v>0.009947257794962187</v>
       </c>
       <c r="BE4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF4" t="n">
-        <v>0.04917787776700348</v>
+        <v>0</v>
       </c>
       <c r="BG4" t="n">
-        <v>0.030457974370763</v>
+        <v>-0.02093804795223217</v>
       </c>
       <c r="BH4" t="n">
-        <v>-0</v>
+        <v>-0.008073516910160413</v>
       </c>
       <c r="BI4" t="n">
         <v>-0</v>
       </c>
       <c r="BJ4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BK4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM4" t="n">
-        <v>0.05641358908825837</v>
+        <v>0.01774092850165324</v>
       </c>
       <c r="BN4" t="n">
         <v>-0</v>
       </c>
       <c r="BO4" t="n">
-        <v>0.04075908468326416</v>
+        <v>0</v>
       </c>
       <c r="BP4" t="n">
-        <v>0.03853721166738037</v>
+        <v>0.007611485329593208</v>
       </c>
       <c r="BQ4" t="n">
-        <v>0</v>
+        <v>0.01350781914656308</v>
       </c>
       <c r="BR4" t="n">
         <v>-0</v>
@@ -2358,49 +2358,49 @@
         <v>0</v>
       </c>
       <c r="BU4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV4" t="n">
-        <v>0.0002836405852621846</v>
+        <v>-0.00209108274419189</v>
       </c>
       <c r="BW4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX4" t="n">
-        <v>-0.003714040263897694</v>
+        <v>0</v>
       </c>
       <c r="BY4" t="n">
-        <v>0.001188861628487612</v>
+        <v>0.0009572859281914302</v>
       </c>
       <c r="BZ4" t="n">
-        <v>-0</v>
+        <v>-0.001265539763789571</v>
       </c>
       <c r="CA4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CB4" t="n">
         <v>0</v>
       </c>
       <c r="CC4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE4" t="n">
-        <v>0.03561342420955172</v>
+        <v>-0.0005145078100425605</v>
       </c>
       <c r="CF4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CG4" t="n">
-        <v>-0.02785381519443164</v>
+        <v>0</v>
       </c>
       <c r="CH4" t="n">
-        <v>0.02615834569019023</v>
+        <v>0.001452768320459161</v>
       </c>
       <c r="CI4" t="n">
-        <v>0</v>
+        <v>0.01792948873526958</v>
       </c>
       <c r="CJ4" t="n">
         <v>0</v>
@@ -2409,85 +2409,85 @@
         <v>0</v>
       </c>
       <c r="CL4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM4" t="n">
         <v>-0</v>
       </c>
       <c r="CN4" t="n">
-        <v>0.008805044915839572</v>
+        <v>0.009649936602061118</v>
       </c>
       <c r="CO4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CP4" t="n">
-        <v>-0.007124471325586924</v>
+        <v>-0</v>
       </c>
       <c r="CQ4" t="n">
-        <v>0.04120064201420766</v>
+        <v>0.01139754829601182</v>
       </c>
       <c r="CR4" t="n">
-        <v>0</v>
+        <v>-0.007546743885256045</v>
       </c>
       <c r="CS4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CT4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CU4" t="n">
         <v>0</v>
       </c>
       <c r="CV4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW4" t="n">
-        <v>0.03339909471847533</v>
+        <v>0.001721372067149207</v>
       </c>
       <c r="CX4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CY4" t="n">
-        <v>-0.03134474708317335</v>
+        <v>0</v>
       </c>
       <c r="CZ4" t="n">
-        <v>0.02000790428159898</v>
+        <v>0.001009354351061101</v>
       </c>
       <c r="DA4" t="n">
-        <v>-0</v>
+        <v>0.01784478181369086</v>
       </c>
       <c r="DB4" t="n">
         <v>-0</v>
       </c>
       <c r="DC4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DD4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DE4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DF4" t="n">
-        <v>0.1309882368272898</v>
+        <v>0.002938868052064987</v>
       </c>
       <c r="DG4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DH4" t="n">
-        <v>-0.07589830067115577</v>
+        <v>-0</v>
       </c>
       <c r="DI4" t="n">
-        <v>0.02916344755947496</v>
+        <v>-0.0001920435964206871</v>
       </c>
       <c r="DJ4" t="n">
-        <v>0</v>
+        <v>0.02093545957287496</v>
       </c>
       <c r="DK4" t="n">
         <v>0</v>
       </c>
       <c r="DL4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DM4" t="n">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         <v>-0</v>
       </c>
       <c r="DO4" t="n">
-        <v>-0.02763078115819554</v>
+        <v>0.008214485741631807</v>
       </c>
       <c r="DP4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DQ4" t="n">
-        <v>-0.01278350205462067</v>
+        <v>-0</v>
       </c>
       <c r="DR4" t="n">
-        <v>0.05671244966522625</v>
+        <v>-0.003815660944152529</v>
       </c>
       <c r="DS4" t="n">
-        <v>-0</v>
+        <v>0.005803944290699419</v>
       </c>
       <c r="DT4" t="n">
         <v>0</v>
@@ -2520,52 +2520,52 @@
         <v>-0</v>
       </c>
       <c r="DW4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DX4" t="n">
-        <v>-0.06909533972401734</v>
+        <v>-0.004985218461379053</v>
       </c>
       <c r="DY4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ4" t="n">
-        <v>0.07135331020991216</v>
+        <v>0</v>
       </c>
       <c r="EA4" t="n">
-        <v>-0.0168606671580014</v>
+        <v>-0.02817009290726326</v>
       </c>
       <c r="EB4" t="n">
-        <v>-0</v>
+        <v>-0.003785772134975926</v>
       </c>
       <c r="EC4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EE4" t="n">
         <v>-0</v>
       </c>
       <c r="EF4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EG4" t="n">
-        <v>0.06500215140649754</v>
+        <v>0.0002413310325629412</v>
       </c>
       <c r="EH4" t="n">
         <v>-0</v>
       </c>
       <c r="EI4" t="n">
-        <v>-0.02016171738847956</v>
+        <v>0</v>
       </c>
       <c r="EJ4" t="n">
-        <v>-0.06774802664352986</v>
+        <v>0.003026317546645401</v>
       </c>
       <c r="EK4" t="n">
-        <v>0</v>
+        <v>0.003710890212110911</v>
       </c>
       <c r="EL4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM4" t="n">
         <v>0</v>
@@ -2577,100 +2577,100 @@
         <v>0</v>
       </c>
       <c r="EP4" t="n">
-        <v>-0.004704285969156473</v>
+        <v>0.004476559560080078</v>
       </c>
       <c r="EQ4" t="n">
         <v>-0</v>
       </c>
       <c r="ER4" t="n">
-        <v>0.004621328656600612</v>
+        <v>0</v>
       </c>
       <c r="ES4" t="n">
-        <v>0.05498513618029047</v>
+        <v>0.001753694598090696</v>
       </c>
       <c r="ET4" t="n">
-        <v>-0</v>
+        <v>0.02924783744314201</v>
       </c>
       <c r="EU4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EV4" t="n">
         <v>0</v>
       </c>
       <c r="EW4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EX4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY4" t="n">
-        <v>0.03018107087600476</v>
+        <v>-0.0005419476673011349</v>
       </c>
       <c r="EZ4" t="n">
         <v>-0</v>
       </c>
       <c r="FA4" t="n">
-        <v>-0.02301429635015732</v>
+        <v>0</v>
       </c>
       <c r="FB4" t="n">
-        <v>0.0244865640163923</v>
+        <v>0.000917442497608016</v>
       </c>
       <c r="FC4" t="n">
-        <v>0</v>
+        <v>0.01498212409512559</v>
       </c>
       <c r="FD4" t="n">
         <v>0</v>
       </c>
       <c r="FE4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FH4" t="n">
-        <v>-0.02119198309396456</v>
+        <v>-0.02646171211809471</v>
       </c>
       <c r="FI4" t="n">
         <v>0</v>
       </c>
       <c r="FJ4" t="n">
-        <v>0.01014638721521138</v>
+        <v>-0</v>
       </c>
       <c r="FK4" t="n">
-        <v>0.01611127029408788</v>
+        <v>-0.03096952380882109</v>
       </c>
       <c r="FL4" t="n">
-        <v>0</v>
+        <v>0.007299307705780051</v>
       </c>
       <c r="FM4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO4" t="n">
         <v>0</v>
       </c>
       <c r="FP4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ4" t="n">
-        <v>-0.04410146071381726</v>
+        <v>0.002046403238640995</v>
       </c>
       <c r="FR4" t="n">
         <v>0</v>
       </c>
       <c r="FS4" t="n">
-        <v>0.07845117884031605</v>
+        <v>-0</v>
       </c>
       <c r="FT4" t="n">
-        <v>0.02368105561923406</v>
+        <v>0.002118571738029112</v>
       </c>
       <c r="FU4" t="n">
-        <v>0</v>
+        <v>0.03132740433775768</v>
       </c>
       <c r="FV4" t="n">
         <v>-0</v>
@@ -2679,31 +2679,31 @@
         <v>-0</v>
       </c>
       <c r="FX4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY4" t="n">
         <v>-0</v>
       </c>
       <c r="FZ4" t="n">
-        <v>0.0044013248510619</v>
+        <v>-0.02060904232583149</v>
       </c>
       <c r="GA4" t="n">
         <v>0</v>
       </c>
       <c r="GB4" t="n">
-        <v>0.05509267641187561</v>
+        <v>0</v>
       </c>
       <c r="GC4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD4" t="n">
-        <v>0</v>
+        <v>0.007410550652823883</v>
       </c>
       <c r="GE4" t="n">
         <v>0</v>
       </c>
       <c r="GF4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG4" t="n">
         <v>0</v>
@@ -2711,127 +2711,127 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>-0</v>
+        <v>0.1538185957137352</v>
       </c>
       <c r="C5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.00979387839160333</v>
+        <v>-0.1050011255484465</v>
       </c>
       <c r="E5" t="n">
-        <v>0.003444084833188533</v>
+        <v>-0.01467962087238325</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.07152742468699874</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>-0</v>
+        <v>0.1286377118150642</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.0005446555617524499</v>
+        <v>-0.0832849856058029</v>
       </c>
       <c r="N5" t="n">
-        <v>0.00175744451817226</v>
+        <v>-0.02846439739632293</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.04331085894617259</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>-0.01128887624312271</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0.002759255690495583</v>
+        <v>0.001840467661366441</v>
       </c>
       <c r="W5" t="n">
-        <v>0.02172964471095173</v>
+        <v>0.01543289675809992</v>
       </c>
       <c r="X5" t="n">
         <v>-0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z5" t="n">
-        <v>-0.002948907229033148</v>
+        <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB5" t="n">
         <v>0</v>
       </c>
       <c r="AC5" t="n">
-        <v>-0</v>
+        <v>0.08636609653298045</v>
       </c>
       <c r="AD5" t="n">
         <v>-0</v>
       </c>
       <c r="AE5" t="n">
-        <v>-0.01505064667503863</v>
+        <v>0.06010035396492631</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.06575582582998092</v>
+        <v>0.08651960379291961</v>
       </c>
       <c r="AG5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AH5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AI5" t="n">
-        <v>-0.05301327847384539</v>
+        <v>-0</v>
       </c>
       <c r="AJ5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AK5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL5" t="n">
-        <v>-0</v>
+        <v>0.01353271686599195</v>
       </c>
       <c r="AM5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN5" t="n">
-        <v>0.009153479872309644</v>
+        <v>-0.04007864360913247</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.0245180918173115</v>
+        <v>-0.02602217962651453</v>
       </c>
       <c r="AP5" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>-0</v>
       </c>
       <c r="AR5" t="n">
-        <v>0.01040240806342115</v>
+        <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT5" t="n">
         <v>-0</v>
       </c>
       <c r="AU5" t="n">
-        <v>-0</v>
+        <v>0.406543069491958</v>
       </c>
       <c r="AV5" t="n">
         <v>-0</v>
       </c>
       <c r="AW5" t="n">
-        <v>0.02653721677021289</v>
+        <v>-0.0351686836676873</v>
       </c>
       <c r="AX5" t="n">
-        <v>0.06424092668004909</v>
+        <v>0.1696309329888061</v>
       </c>
       <c r="AY5" t="n">
         <v>0</v>
@@ -2867,7 +2867,7 @@
         <v>0</v>
       </c>
       <c r="BA5" t="n">
-        <v>-0.252274749650147</v>
+        <v>0</v>
       </c>
       <c r="BB5" t="n">
         <v>0</v>
@@ -2876,52 +2876,52 @@
         <v>0</v>
       </c>
       <c r="BD5" t="n">
-        <v>-0</v>
+        <v>0.004829113015839249</v>
       </c>
       <c r="BE5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF5" t="n">
-        <v>0.01148752436531126</v>
+        <v>-0.07246986014742123</v>
       </c>
       <c r="BG5" t="n">
-        <v>-0.005923838835823154</v>
+        <v>-0.07553745412617004</v>
       </c>
       <c r="BH5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI5" t="n">
         <v>-0</v>
       </c>
       <c r="BJ5" t="n">
-        <v>0.008259938208503174</v>
+        <v>0</v>
       </c>
       <c r="BK5" t="n">
         <v>0</v>
       </c>
       <c r="BL5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM5" t="n">
-        <v>0</v>
+        <v>-0.01249798299397514</v>
       </c>
       <c r="BN5" t="n">
         <v>-0</v>
       </c>
       <c r="BO5" t="n">
-        <v>0.0238279504930839</v>
+        <v>0.08369901284946767</v>
       </c>
       <c r="BP5" t="n">
-        <v>-0.005566580585659806</v>
+        <v>0.08335128668018017</v>
       </c>
       <c r="BQ5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BR5" t="n">
         <v>-0</v>
       </c>
       <c r="BS5" t="n">
-        <v>0.1212726632643067</v>
+        <v>-0</v>
       </c>
       <c r="BT5" t="n">
         <v>-0</v>
@@ -2930,16 +2930,16 @@
         <v>-0</v>
       </c>
       <c r="BV5" t="n">
-        <v>0</v>
+        <v>-0.01727843851762532</v>
       </c>
       <c r="BW5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX5" t="n">
-        <v>0.0007856368520884931</v>
+        <v>0.05304600638683674</v>
       </c>
       <c r="BY5" t="n">
-        <v>0.00725282693931983</v>
+        <v>0.001701330021203633</v>
       </c>
       <c r="BZ5" t="n">
         <v>0</v>
@@ -2948,88 +2948,88 @@
         <v>0</v>
       </c>
       <c r="CB5" t="n">
-        <v>0.07870067519510782</v>
+        <v>0</v>
       </c>
       <c r="CC5" t="n">
         <v>0</v>
       </c>
       <c r="CD5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE5" t="n">
-        <v>0</v>
+        <v>-0.09551175427613884</v>
       </c>
       <c r="CF5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CG5" t="n">
-        <v>-0.0003874825821804235</v>
+        <v>0.02212996490190682</v>
       </c>
       <c r="CH5" t="n">
-        <v>0.01355718765337013</v>
+        <v>-0.03216773308368684</v>
       </c>
       <c r="CI5" t="n">
         <v>-0</v>
       </c>
       <c r="CJ5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK5" t="n">
-        <v>0.04518965854892722</v>
+        <v>-0</v>
       </c>
       <c r="CL5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN5" t="n">
-        <v>0</v>
+        <v>0.03857860998949223</v>
       </c>
       <c r="CO5" t="n">
         <v>0</v>
       </c>
       <c r="CP5" t="n">
-        <v>0.004557755594421794</v>
+        <v>-0.0712492544802206</v>
       </c>
       <c r="CQ5" t="n">
-        <v>0.05622211949721841</v>
+        <v>-0.1243582290465805</v>
       </c>
       <c r="CR5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CS5" t="n">
         <v>-0</v>
       </c>
       <c r="CT5" t="n">
-        <v>0.03563699678680095</v>
+        <v>-0</v>
       </c>
       <c r="CU5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW5" t="n">
-        <v>0</v>
+        <v>-0.09895174116957269</v>
       </c>
       <c r="CX5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CY5" t="n">
-        <v>0.001715127753986576</v>
+        <v>0.04257156509197368</v>
       </c>
       <c r="CZ5" t="n">
-        <v>0.01200373050595509</v>
+        <v>0.01097725882610638</v>
       </c>
       <c r="DA5" t="n">
         <v>0</v>
       </c>
       <c r="DB5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC5" t="n">
-        <v>0.03582244090658263</v>
+        <v>0</v>
       </c>
       <c r="DD5" t="n">
         <v>0</v>
@@ -3038,79 +3038,79 @@
         <v>0</v>
       </c>
       <c r="DF5" t="n">
-        <v>0</v>
+        <v>-0.004557416099069247</v>
       </c>
       <c r="DG5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DH5" t="n">
-        <v>-0.005504334745523742</v>
+        <v>0.04394079308824615</v>
       </c>
       <c r="DI5" t="n">
-        <v>0.002317706981330086</v>
+        <v>0.03124697574204882</v>
       </c>
       <c r="DJ5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DK5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DL5" t="n">
-        <v>-0.00741939163796261</v>
+        <v>-0</v>
       </c>
       <c r="DM5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DN5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO5" t="n">
-        <v>0</v>
+        <v>-0.1409075065101117</v>
       </c>
       <c r="DP5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DQ5" t="n">
-        <v>0.03457238087524882</v>
+        <v>0.01465874138277226</v>
       </c>
       <c r="DR5" t="n">
-        <v>-0.06931563127435519</v>
+        <v>-0.02903231411736519</v>
       </c>
       <c r="DS5" t="n">
         <v>0</v>
       </c>
       <c r="DT5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU5" t="n">
-        <v>-0.002278535592494884</v>
+        <v>-0</v>
       </c>
       <c r="DV5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DX5" t="n">
-        <v>-0</v>
+        <v>0.003954088624971069</v>
       </c>
       <c r="DY5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ5" t="n">
-        <v>-0.03034067626561474</v>
+        <v>-0.02456483450152074</v>
       </c>
       <c r="EA5" t="n">
-        <v>0.02550067996152437</v>
+        <v>0.08949041112084641</v>
       </c>
       <c r="EB5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EC5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED5" t="n">
-        <v>0.02821269304759537</v>
+        <v>-0</v>
       </c>
       <c r="EE5" t="n">
         <v>-0</v>
@@ -3119,70 +3119,70 @@
         <v>0</v>
       </c>
       <c r="EG5" t="n">
-        <v>0</v>
+        <v>-0.0326765871195539</v>
       </c>
       <c r="EH5" t="n">
         <v>0</v>
       </c>
       <c r="EI5" t="n">
-        <v>-0.0005354817835325496</v>
+        <v>-0.005523853980974637</v>
       </c>
       <c r="EJ5" t="n">
-        <v>0.0346301710862728</v>
+        <v>0.057095377614889</v>
       </c>
       <c r="EK5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EL5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM5" t="n">
-        <v>0.03931273768467353</v>
+        <v>-0</v>
       </c>
       <c r="EN5" t="n">
         <v>-0</v>
       </c>
       <c r="EO5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EP5" t="n">
-        <v>0</v>
+        <v>-0.1020772060268785</v>
       </c>
       <c r="EQ5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER5" t="n">
-        <v>-0.03648802565565114</v>
+        <v>0.06125149623905828</v>
       </c>
       <c r="ES5" t="n">
-        <v>0.06383263807208944</v>
+        <v>0.02415800275830667</v>
       </c>
       <c r="ET5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EU5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV5" t="n">
-        <v>-0.08182625682733939</v>
+        <v>0</v>
       </c>
       <c r="EW5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX5" t="n">
         <v>0</v>
       </c>
       <c r="EY5" t="n">
-        <v>0</v>
+        <v>-0.1025180198333769</v>
       </c>
       <c r="EZ5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FA5" t="n">
-        <v>-0.001492139752331442</v>
+        <v>0.05340218931383708</v>
       </c>
       <c r="FB5" t="n">
-        <v>0.009972818833794441</v>
+        <v>-0.02198299841547213</v>
       </c>
       <c r="FC5" t="n">
         <v>-0</v>
@@ -3191,61 +3191,61 @@
         <v>-0</v>
       </c>
       <c r="FE5" t="n">
-        <v>0.04222575129926107</v>
+        <v>-0</v>
       </c>
       <c r="FF5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FH5" t="n">
-        <v>-0</v>
+        <v>0.008357542288410607</v>
       </c>
       <c r="FI5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ5" t="n">
-        <v>-0.08297280974419173</v>
+        <v>-0.07463878145602466</v>
       </c>
       <c r="FK5" t="n">
-        <v>0.01514317733128353</v>
+        <v>0.05256382144655315</v>
       </c>
       <c r="FL5" t="n">
         <v>-0</v>
       </c>
       <c r="FM5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN5" t="n">
-        <v>-0.09303776696270484</v>
+        <v>-0</v>
       </c>
       <c r="FO5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP5" t="n">
         <v>0</v>
       </c>
       <c r="FQ5" t="n">
-        <v>0</v>
+        <v>-0.004875069940460814</v>
       </c>
       <c r="FR5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS5" t="n">
-        <v>0.02336984125448375</v>
+        <v>0.1114052808010818</v>
       </c>
       <c r="FT5" t="n">
-        <v>0.1544950892044407</v>
+        <v>0.1518854579331587</v>
       </c>
       <c r="FU5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FV5" t="n">
         <v>-0</v>
       </c>
       <c r="FW5" t="n">
-        <v>0.1016055965722946</v>
+        <v>0</v>
       </c>
       <c r="FX5" t="n">
         <v>-0</v>
@@ -3254,28 +3254,28 @@
         <v>-0</v>
       </c>
       <c r="FZ5" t="n">
-        <v>0</v>
+        <v>-0.0228905829770002</v>
       </c>
       <c r="GA5" t="n">
         <v>-0</v>
       </c>
       <c r="GB5" t="n">
-        <v>-0.02802981071664438</v>
+        <v>0.01546890827586173</v>
       </c>
       <c r="GC5" t="n">
         <v>0</v>
       </c>
       <c r="GD5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GE5" t="n">
         <v>-0</v>
       </c>
       <c r="GF5" t="n">
-        <v>0.006772451801468075</v>
+        <v>0</v>
       </c>
       <c r="GG5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="6">
@@ -3283,25 +3283,25 @@
         <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>0.01682714040408754</v>
+        <v>0.01732843427520229</v>
       </c>
       <c r="C6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.06387984513279003</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.01533986011994605</v>
+        <v>-0.000757920388540742</v>
       </c>
       <c r="F6" t="n">
-        <v>-0</v>
+        <v>0.004071941065468733</v>
       </c>
       <c r="G6" t="n">
         <v>-0</v>
       </c>
       <c r="H6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -3310,19 +3310,19 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.0121667709562045</v>
+        <v>0.007672137452666446</v>
       </c>
       <c r="L6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0.04085969334139966</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0.001891767476024095</v>
+        <v>-0.00563272138839092</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>-0.004174024454726813</v>
       </c>
       <c r="P6" t="n">
         <v>-0</v>
@@ -3334,25 +3334,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>-0.003988389894500668</v>
+        <v>0.000286606180640165</v>
       </c>
       <c r="U6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0.008200728729973204</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0.02835320942957585</v>
+        <v>0.002479823097700543</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>-0.007610729710548746</v>
       </c>
       <c r="Y6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Z6" t="n">
         <v>0</v>
@@ -3364,25 +3364,25 @@
         <v>0</v>
       </c>
       <c r="AC6" t="n">
-        <v>-0.02959164414432212</v>
+        <v>0.02304692311855344</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.03013317605807554</v>
+        <v>-0</v>
       </c>
       <c r="AF6" t="n">
-        <v>-0.00767685463408759</v>
+        <v>0.01523340913467962</v>
       </c>
       <c r="AG6" t="n">
-        <v>-0</v>
+        <v>-0.001038349171224043</v>
       </c>
       <c r="AH6" t="n">
         <v>0</v>
       </c>
       <c r="AI6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AJ6" t="n">
         <v>-0</v>
@@ -3391,49 +3391,49 @@
         <v>0</v>
       </c>
       <c r="AL6" t="n">
-        <v>-0.01746614373416016</v>
+        <v>0.003358593648470517</v>
       </c>
       <c r="AM6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN6" t="n">
-        <v>0.000572619136318031</v>
+        <v>0</v>
       </c>
       <c r="AO6" t="n">
-        <v>0.02378667331829315</v>
+        <v>-0.005900060119722279</v>
       </c>
       <c r="AP6" t="n">
-        <v>-0</v>
+        <v>-0.002659833459636625</v>
       </c>
       <c r="AQ6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU6" t="n">
-        <v>-0.1349702378736097</v>
+        <v>0.05094491766521728</v>
       </c>
       <c r="AV6" t="n">
         <v>0</v>
       </c>
       <c r="AW6" t="n">
-        <v>0.0560070070596712</v>
+        <v>0</v>
       </c>
       <c r="AX6" t="n">
-        <v>-0.004813155132831176</v>
+        <v>0.0004194999484507875</v>
       </c>
       <c r="AY6" t="n">
-        <v>0</v>
+        <v>-0.009317865059185304</v>
       </c>
       <c r="AZ6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA6" t="n">
         <v>0</v>
@@ -3445,19 +3445,19 @@
         <v>0</v>
       </c>
       <c r="BD6" t="n">
-        <v>-0.01282576921048653</v>
+        <v>0.002861049383754303</v>
       </c>
       <c r="BE6" t="n">
         <v>0</v>
       </c>
       <c r="BF6" t="n">
-        <v>0.07249015806680303</v>
+        <v>0</v>
       </c>
       <c r="BG6" t="n">
-        <v>0.01424766797710856</v>
+        <v>-0.01929819231770547</v>
       </c>
       <c r="BH6" t="n">
-        <v>-0</v>
+        <v>-0.002224835889380155</v>
       </c>
       <c r="BI6" t="n">
         <v>-0</v>
@@ -3466,25 +3466,25 @@
         <v>0</v>
       </c>
       <c r="BK6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM6" t="n">
-        <v>0.06076578731476471</v>
+        <v>0.008526222787695282</v>
       </c>
       <c r="BN6" t="n">
         <v>-0</v>
       </c>
       <c r="BO6" t="n">
-        <v>0.05190265332239992</v>
+        <v>-0</v>
       </c>
       <c r="BP6" t="n">
-        <v>0.06087310443249464</v>
+        <v>0.006461823528922876</v>
       </c>
       <c r="BQ6" t="n">
-        <v>0</v>
+        <v>0.007632961109049933</v>
       </c>
       <c r="BR6" t="n">
         <v>-0</v>
@@ -3496,49 +3496,49 @@
         <v>0</v>
       </c>
       <c r="BU6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV6" t="n">
-        <v>0.0001718835298253835</v>
+        <v>-0.001421422930367228</v>
       </c>
       <c r="BW6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX6" t="n">
-        <v>-0.005953740626708237</v>
+        <v>0</v>
       </c>
       <c r="BY6" t="n">
-        <v>-0.003581809598708293</v>
+        <v>0.000213883842035704</v>
       </c>
       <c r="BZ6" t="n">
-        <v>-0</v>
+        <v>-0.0006641280946216713</v>
       </c>
       <c r="CA6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CB6" t="n">
         <v>0</v>
       </c>
       <c r="CC6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE6" t="n">
-        <v>0.03917427719318415</v>
+        <v>-0.001934318317750004</v>
       </c>
       <c r="CF6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CG6" t="n">
-        <v>-0.03998442078327608</v>
+        <v>0</v>
       </c>
       <c r="CH6" t="n">
-        <v>0.01367415167049925</v>
+        <v>-0.004485601893566461</v>
       </c>
       <c r="CI6" t="n">
-        <v>0</v>
+        <v>0.008940074585245754</v>
       </c>
       <c r="CJ6" t="n">
         <v>0</v>
@@ -3547,112 +3547,112 @@
         <v>0</v>
       </c>
       <c r="CL6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CM6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CN6" t="n">
-        <v>0.02392585285312596</v>
+        <v>0.004831832155681555</v>
       </c>
       <c r="CO6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CP6" t="n">
-        <v>-0.03943689125436411</v>
+        <v>-0</v>
       </c>
       <c r="CQ6" t="n">
-        <v>0.03096934065430876</v>
+        <v>0.0007261644518541469</v>
       </c>
       <c r="CR6" t="n">
-        <v>0</v>
+        <v>-0.01170073511052333</v>
       </c>
       <c r="CS6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT6" t="n">
         <v>-0</v>
       </c>
       <c r="CU6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW6" t="n">
-        <v>0.04522507301357836</v>
+        <v>-0.0002495887592654431</v>
       </c>
       <c r="CX6" t="n">
         <v>0</v>
       </c>
       <c r="CY6" t="n">
-        <v>-0.0356180973000871</v>
+        <v>0</v>
       </c>
       <c r="CZ6" t="n">
-        <v>0.003523442175369895</v>
+        <v>-0.005998957039111883</v>
       </c>
       <c r="DA6" t="n">
-        <v>-0</v>
+        <v>0.01111249376724796</v>
       </c>
       <c r="DB6" t="n">
         <v>-0</v>
       </c>
       <c r="DC6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DD6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DE6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DF6" t="n">
-        <v>0.0995494578877235</v>
+        <v>0.009988183848969275</v>
       </c>
       <c r="DG6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DH6" t="n">
-        <v>-0.02257927509303536</v>
+        <v>-0</v>
       </c>
       <c r="DI6" t="n">
-        <v>-0.001596787171013707</v>
+        <v>-3.608229212111343e-05</v>
       </c>
       <c r="DJ6" t="n">
-        <v>0</v>
+        <v>0.0290436317518898</v>
       </c>
       <c r="DK6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DL6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DM6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO6" t="n">
-        <v>-0.02794837483720631</v>
+        <v>0.0104031821198211</v>
       </c>
       <c r="DP6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DQ6" t="n">
-        <v>-0.01010197674398602</v>
+        <v>-0</v>
       </c>
       <c r="DR6" t="n">
-        <v>0.09184871061741655</v>
+        <v>0.002540468477630783</v>
       </c>
       <c r="DS6" t="n">
-        <v>-0</v>
+        <v>0.002784859491512921</v>
       </c>
       <c r="DT6" t="n">
         <v>0</v>
       </c>
       <c r="DU6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV6" t="n">
         <v>-0</v>
@@ -3661,22 +3661,22 @@
         <v>-0</v>
       </c>
       <c r="DX6" t="n">
-        <v>0.01684914974474178</v>
+        <v>-0.01290459634901565</v>
       </c>
       <c r="DY6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ6" t="n">
-        <v>0.04111615510509607</v>
+        <v>0</v>
       </c>
       <c r="EA6" t="n">
-        <v>0.02279691318857795</v>
+        <v>-0.01112448899213213</v>
       </c>
       <c r="EB6" t="n">
-        <v>-0</v>
+        <v>0.00701407117867173</v>
       </c>
       <c r="EC6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED6" t="n">
         <v>-0</v>
@@ -3685,136 +3685,136 @@
         <v>-0</v>
       </c>
       <c r="EF6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EG6" t="n">
-        <v>0.04585241275679004</v>
+        <v>0.0004911411216414659</v>
       </c>
       <c r="EH6" t="n">
         <v>-0</v>
       </c>
       <c r="EI6" t="n">
-        <v>-0.03517536765083541</v>
+        <v>0</v>
       </c>
       <c r="EJ6" t="n">
-        <v>-0.1003231334499898</v>
+        <v>-0.002193232393899534</v>
       </c>
       <c r="EK6" t="n">
-        <v>0</v>
+        <v>0.001234813318825483</v>
       </c>
       <c r="EL6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM6" t="n">
         <v>0</v>
       </c>
       <c r="EN6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EO6" t="n">
         <v>0</v>
       </c>
       <c r="EP6" t="n">
-        <v>0.01784294799813069</v>
+        <v>-0.00926440811053658</v>
       </c>
       <c r="EQ6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ER6" t="n">
-        <v>0.000770135333989322</v>
+        <v>0</v>
       </c>
       <c r="ES6" t="n">
-        <v>0.03753662001516894</v>
+        <v>-0.01151669232774646</v>
       </c>
       <c r="ET6" t="n">
-        <v>0</v>
+        <v>0.03063635838093927</v>
       </c>
       <c r="EU6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EV6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY6" t="n">
-        <v>0.03435688563315031</v>
+        <v>-0.002029908308333528</v>
       </c>
       <c r="EZ6" t="n">
         <v>-0</v>
       </c>
       <c r="FA6" t="n">
-        <v>-0.02351448098672516</v>
+        <v>0</v>
       </c>
       <c r="FB6" t="n">
-        <v>0.01928961620198451</v>
+        <v>-0.006445361012277704</v>
       </c>
       <c r="FC6" t="n">
-        <v>0</v>
+        <v>0.009034130338291719</v>
       </c>
       <c r="FD6" t="n">
         <v>0</v>
       </c>
       <c r="FE6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG6" t="n">
         <v>0</v>
       </c>
       <c r="FH6" t="n">
-        <v>-0.0456765777120423</v>
+        <v>-0.01794697158346966</v>
       </c>
       <c r="FI6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ6" t="n">
-        <v>-0.0293874031340938</v>
+        <v>-0</v>
       </c>
       <c r="FK6" t="n">
-        <v>0.02972969242101233</v>
+        <v>-0.01711638280821613</v>
       </c>
       <c r="FL6" t="n">
-        <v>0</v>
+        <v>0.01706512299865501</v>
       </c>
       <c r="FM6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO6" t="n">
         <v>0</v>
       </c>
       <c r="FP6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ6" t="n">
-        <v>-0.0153034978151756</v>
+        <v>0.002822424336661034</v>
       </c>
       <c r="FR6" t="n">
         <v>0</v>
       </c>
       <c r="FS6" t="n">
-        <v>0.04956197211280427</v>
+        <v>-0</v>
       </c>
       <c r="FT6" t="n">
-        <v>-0.03058252550850843</v>
+        <v>0.009646776030075951</v>
       </c>
       <c r="FU6" t="n">
-        <v>0</v>
+        <v>0.01018819783552861</v>
       </c>
       <c r="FV6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FW6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX6" t="n">
         <v>0</v>
@@ -3823,48 +3823,48 @@
         <v>-0</v>
       </c>
       <c r="FZ6" t="n">
-        <v>0.03538059467377035</v>
+        <v>-0.01593715009714854</v>
       </c>
       <c r="GA6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GB6" t="n">
-        <v>0.05555595341294876</v>
+        <v>0</v>
       </c>
       <c r="GC6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD6" t="n">
-        <v>-0</v>
+        <v>0.005238336270298332</v>
       </c>
       <c r="GE6" t="n">
         <v>-0</v>
       </c>
       <c r="GF6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B7" t="n">
-        <v>-0</v>
+        <v>0.07964658366624791</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01893063987944581</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0.05437431256625413</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.00679048525055864</v>
+        <v>-0.0124273327847282</v>
       </c>
       <c r="F7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>-0</v>
@@ -3873,184 +3873,184 @@
         <v>-0</v>
       </c>
       <c r="I7" t="n">
-        <v>-0</v>
+        <v>0.02657453487153946</v>
       </c>
       <c r="J7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>-0</v>
+        <v>0.04256233047078197</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.008738485239094717</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>0.02358523925995221</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.05081776650064879</v>
+        <v>-0.06226948799710332</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="R7" t="n">
-        <v>-0</v>
+        <v>-0.01020600981627819</v>
       </c>
       <c r="S7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>1.847666464103345e-11</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0280881706695401</v>
+        <v>-0</v>
       </c>
       <c r="V7" t="n">
-        <v>-5.117476454421477e-11</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0.02114421514293579</v>
+        <v>0.005295661736090916</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
       </c>
       <c r="Z7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AA7" t="n">
-        <v>-0</v>
+        <v>0.001625467518021707</v>
       </c>
       <c r="AB7" t="n">
         <v>0</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>0.06303970923986613</v>
       </c>
       <c r="AD7" t="n">
-        <v>-0.0131718570376997</v>
+        <v>-0</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.004224282631247039</v>
+        <v>-0</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.06067737206988074</v>
+        <v>0.03251679324152879</v>
       </c>
       <c r="AG7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AH7" t="n">
         <v>-0</v>
       </c>
       <c r="AI7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AJ7" t="n">
-        <v>-0</v>
+        <v>0.02092012044698214</v>
       </c>
       <c r="AK7" t="n">
         <v>0</v>
       </c>
       <c r="AL7" t="n">
-        <v>0</v>
+        <v>0.02720623178904479</v>
       </c>
       <c r="AM7" t="n">
-        <v>-0.002110442110180237</v>
+        <v>0</v>
       </c>
       <c r="AN7" t="n">
-        <v>0.03663395934478562</v>
+        <v>0</v>
       </c>
       <c r="AO7" t="n">
-        <v>0.01129494048567325</v>
+        <v>-0.01673075342276328</v>
       </c>
       <c r="AP7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AQ7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>0</v>
+        <v>-0.01124574841084781</v>
       </c>
       <c r="AT7" t="n">
         <v>-0</v>
       </c>
       <c r="AU7" t="n">
-        <v>0</v>
+        <v>0.2359566862331668</v>
       </c>
       <c r="AV7" t="n">
-        <v>-0.04937895199563422</v>
+        <v>-0</v>
       </c>
       <c r="AW7" t="n">
-        <v>0.1566583455500923</v>
+        <v>-0</v>
       </c>
       <c r="AX7" t="n">
-        <v>0.1160397428928366</v>
+        <v>0.1198315920469325</v>
       </c>
       <c r="AY7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AZ7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BB7" t="n">
-        <v>-0</v>
+        <v>0.009296248885170633</v>
       </c>
       <c r="BC7" t="n">
         <v>0</v>
       </c>
       <c r="BD7" t="n">
-        <v>-0</v>
+        <v>-0.04252459183814412</v>
       </c>
       <c r="BE7" t="n">
-        <v>-0.008523757279131376</v>
+        <v>-0</v>
       </c>
       <c r="BF7" t="n">
-        <v>0.03495780836861201</v>
+        <v>0</v>
       </c>
       <c r="BG7" t="n">
-        <v>-0.03341061679919854</v>
+        <v>-0.09152398232596817</v>
       </c>
       <c r="BH7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI7" t="n">
         <v>-0</v>
       </c>
       <c r="BJ7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BK7" t="n">
-        <v>-0</v>
+        <v>-0.0190185228641242</v>
       </c>
       <c r="BL7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM7" t="n">
-        <v>0</v>
+        <v>-0.0266155549661026</v>
       </c>
       <c r="BN7" t="n">
-        <v>0.07130003316389813</v>
+        <v>-0</v>
       </c>
       <c r="BO7" t="n">
-        <v>0.001333430570220226</v>
+        <v>0</v>
       </c>
       <c r="BP7" t="n">
-        <v>0.09504587039883546</v>
+        <v>0.09505670796783107</v>
       </c>
       <c r="BQ7" t="n">
         <v>-0</v>
@@ -4062,76 +4062,76 @@
         <v>0</v>
       </c>
       <c r="BT7" t="n">
-        <v>0</v>
+        <v>0.02193903733334758</v>
       </c>
       <c r="BU7" t="n">
         <v>-0</v>
       </c>
       <c r="BV7" t="n">
-        <v>0</v>
+        <v>-0.008702793644363658</v>
       </c>
       <c r="BW7" t="n">
-        <v>0.0001412175624976819</v>
+        <v>0</v>
       </c>
       <c r="BX7" t="n">
-        <v>-0.007673279238439384</v>
+        <v>0</v>
       </c>
       <c r="BY7" t="n">
-        <v>-0.00654792600766272</v>
+        <v>0.0003963738745629511</v>
       </c>
       <c r="BZ7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CA7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CB7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CC7" t="n">
-        <v>-0</v>
+        <v>-0.001923080011109709</v>
       </c>
       <c r="CD7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE7" t="n">
-        <v>0</v>
+        <v>-0.03009904337979843</v>
       </c>
       <c r="CF7" t="n">
-        <v>0.02078358152624309</v>
+        <v>-0</v>
       </c>
       <c r="CG7" t="n">
-        <v>-0.04247309843239434</v>
+        <v>-0</v>
       </c>
       <c r="CH7" t="n">
-        <v>0.002463570910427104</v>
+        <v>0.002716378941785376</v>
       </c>
       <c r="CI7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CJ7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK7" t="n">
         <v>0</v>
       </c>
       <c r="CL7" t="n">
-        <v>0</v>
+        <v>0.04228173860253838</v>
       </c>
       <c r="CM7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN7" t="n">
-        <v>0</v>
+        <v>0.002679439123593939</v>
       </c>
       <c r="CO7" t="n">
-        <v>-0.02355567153109972</v>
+        <v>0</v>
       </c>
       <c r="CP7" t="n">
-        <v>-0.06120305726957487</v>
+        <v>-0</v>
       </c>
       <c r="CQ7" t="n">
-        <v>-0.09251209379501528</v>
+        <v>-0.0285001438069166</v>
       </c>
       <c r="CR7" t="n">
         <v>0</v>
@@ -4140,163 +4140,163 @@
         <v>-0</v>
       </c>
       <c r="CT7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CU7" t="n">
-        <v>-0</v>
+        <v>-0.005651396438704645</v>
       </c>
       <c r="CV7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW7" t="n">
-        <v>-0</v>
+        <v>-0.03801755873883503</v>
       </c>
       <c r="CX7" t="n">
-        <v>0.02411998617570267</v>
+        <v>0</v>
       </c>
       <c r="CY7" t="n">
-        <v>-0.04119229282356771</v>
+        <v>0</v>
       </c>
       <c r="CZ7" t="n">
-        <v>0.001554979960592638</v>
+        <v>0.008906788289796177</v>
       </c>
       <c r="DA7" t="n">
         <v>0</v>
       </c>
       <c r="DB7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC7" t="n">
         <v>-0</v>
       </c>
       <c r="DD7" t="n">
-        <v>-0</v>
+        <v>0.03219267558086653</v>
       </c>
       <c r="DE7" t="n">
         <v>0</v>
       </c>
       <c r="DF7" t="n">
-        <v>0</v>
+        <v>-0.06181879291990163</v>
       </c>
       <c r="DG7" t="n">
-        <v>0.05032575970593969</v>
+        <v>-0</v>
       </c>
       <c r="DH7" t="n">
-        <v>-0.06588372283274671</v>
+        <v>-0</v>
       </c>
       <c r="DI7" t="n">
-        <v>-0.01279023529817517</v>
+        <v>0.05678398419514651</v>
       </c>
       <c r="DJ7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DK7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DL7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DM7" t="n">
-        <v>0</v>
+        <v>-0.01261907793519688</v>
       </c>
       <c r="DN7" t="n">
         <v>-0</v>
       </c>
       <c r="DO7" t="n">
-        <v>0</v>
+        <v>0.01528506469456528</v>
       </c>
       <c r="DP7" t="n">
-        <v>-0.002266097916475735</v>
+        <v>-0</v>
       </c>
       <c r="DQ7" t="n">
-        <v>-0.04964812344494619</v>
+        <v>-0</v>
       </c>
       <c r="DR7" t="n">
-        <v>0.04433548237129053</v>
+        <v>-0.0183879733540554</v>
       </c>
       <c r="DS7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DT7" t="n">
         <v>0</v>
       </c>
       <c r="DU7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV7" t="n">
-        <v>-0</v>
+        <v>-0.03122160210479629</v>
       </c>
       <c r="DW7" t="n">
         <v>0</v>
       </c>
       <c r="DX7" t="n">
-        <v>-0</v>
+        <v>-0.02254913815372336</v>
       </c>
       <c r="DY7" t="n">
-        <v>-0.004091554754629535</v>
+        <v>0</v>
       </c>
       <c r="DZ7" t="n">
-        <v>0.04227183739566519</v>
+        <v>-0</v>
       </c>
       <c r="EA7" t="n">
-        <v>0.02313436917419572</v>
+        <v>0.01592832988219669</v>
       </c>
       <c r="EB7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EC7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ED7" t="n">
         <v>-0</v>
       </c>
       <c r="EE7" t="n">
-        <v>0</v>
+        <v>0.00911386164399104</v>
       </c>
       <c r="EF7" t="n">
         <v>0</v>
       </c>
       <c r="EG7" t="n">
-        <v>0</v>
+        <v>-0.01244425463861165</v>
       </c>
       <c r="EH7" t="n">
-        <v>0.01460565797467047</v>
+        <v>-0</v>
       </c>
       <c r="EI7" t="n">
-        <v>0.02938517092546816</v>
+        <v>0</v>
       </c>
       <c r="EJ7" t="n">
-        <v>0.01217312322299407</v>
+        <v>0.02929353826320031</v>
       </c>
       <c r="EK7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EL7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM7" t="n">
         <v>0</v>
       </c>
       <c r="EN7" t="n">
-        <v>0</v>
+        <v>0.04520033897594729</v>
       </c>
       <c r="EO7" t="n">
         <v>0</v>
       </c>
       <c r="EP7" t="n">
-        <v>0</v>
+        <v>-0.06587178857250213</v>
       </c>
       <c r="EQ7" t="n">
-        <v>0.02112300942965052</v>
+        <v>-0</v>
       </c>
       <c r="ER7" t="n">
-        <v>-0.04391192464480768</v>
+        <v>0</v>
       </c>
       <c r="ES7" t="n">
-        <v>-0.008085299279382993</v>
+        <v>-0.002041300595869191</v>
       </c>
       <c r="ET7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EU7" t="n">
         <v>-0</v>
@@ -4305,115 +4305,115 @@
         <v>0</v>
       </c>
       <c r="EW7" t="n">
-        <v>0</v>
+        <v>0.0424174005328991</v>
       </c>
       <c r="EX7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY7" t="n">
-        <v>0</v>
+        <v>-0.04822507643014418</v>
       </c>
       <c r="EZ7" t="n">
-        <v>0.01678948730585459</v>
+        <v>-0</v>
       </c>
       <c r="FA7" t="n">
-        <v>-0.03153105003472116</v>
+        <v>-0</v>
       </c>
       <c r="FB7" t="n">
-        <v>0.01312610714114147</v>
+        <v>0.002807764493339367</v>
       </c>
       <c r="FC7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FD7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE7" t="n">
         <v>0</v>
       </c>
       <c r="FF7" t="n">
-        <v>0</v>
+        <v>0.02127972341431316</v>
       </c>
       <c r="FG7" t="n">
         <v>-0</v>
       </c>
       <c r="FH7" t="n">
-        <v>0</v>
+        <v>-0.06768998722372521</v>
       </c>
       <c r="FI7" t="n">
-        <v>0.007024187306114558</v>
+        <v>0</v>
       </c>
       <c r="FJ7" t="n">
-        <v>0.0170170994102513</v>
+        <v>0</v>
       </c>
       <c r="FK7" t="n">
-        <v>-0.02664347479725988</v>
+        <v>0.01010588620122697</v>
       </c>
       <c r="FL7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FM7" t="n">
         <v>0</v>
       </c>
       <c r="FN7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FO7" t="n">
-        <v>0</v>
+        <v>0.04108697310218059</v>
       </c>
       <c r="FP7" t="n">
         <v>0</v>
       </c>
       <c r="FQ7" t="n">
-        <v>-0</v>
+        <v>-0.06056574820765532</v>
       </c>
       <c r="FR7" t="n">
-        <v>0.0007539499820919556</v>
+        <v>0</v>
       </c>
       <c r="FS7" t="n">
-        <v>-0.03983910803860726</v>
+        <v>-0</v>
       </c>
       <c r="FT7" t="n">
-        <v>0.05114205456133231</v>
+        <v>0.06381828727444162</v>
       </c>
       <c r="FU7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FV7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FW7" t="n">
         <v>-0</v>
       </c>
       <c r="FX7" t="n">
-        <v>0</v>
+        <v>0.005619058650449769</v>
       </c>
       <c r="FY7" t="n">
         <v>-0</v>
       </c>
       <c r="FZ7" t="n">
-        <v>-0</v>
+        <v>-0.06213682323298531</v>
       </c>
       <c r="GA7" t="n">
-        <v>0.01300081168373777</v>
+        <v>0</v>
       </c>
       <c r="GB7" t="n">
-        <v>0.0445564127787757</v>
+        <v>-0</v>
       </c>
       <c r="GC7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GF7" t="n">
         <v>0</v>
       </c>
       <c r="GG7" t="n">
-        <v>-0</v>
+        <v>0.03194033294828286</v>
       </c>
     </row>
     <row r="8">
@@ -4421,13 +4421,13 @@
         <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>-0</v>
@@ -4448,13 +4448,13 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>-0</v>
@@ -4475,13 +4475,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>-0</v>
@@ -4502,13 +4502,13 @@
         <v>0</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
       </c>
       <c r="AE8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AF8" t="n">
         <v>-0</v>
@@ -4529,13 +4529,13 @@
         <v>0</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM8" t="n">
         <v>0</v>
       </c>
       <c r="AN8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AO8" t="n">
         <v>-0</v>
@@ -4556,13 +4556,13 @@
         <v>0</v>
       </c>
       <c r="AU8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV8" t="n">
         <v>0</v>
       </c>
       <c r="AW8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AX8" t="n">
         <v>-0</v>
@@ -4583,13 +4583,13 @@
         <v>0</v>
       </c>
       <c r="BD8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE8" t="n">
         <v>0</v>
       </c>
       <c r="BF8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BG8" t="n">
         <v>-0</v>
@@ -4610,13 +4610,13 @@
         <v>0</v>
       </c>
       <c r="BM8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN8" t="n">
         <v>0</v>
       </c>
       <c r="BO8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BP8" t="n">
         <v>-0</v>
@@ -4664,13 +4664,13 @@
         <v>0</v>
       </c>
       <c r="CE8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF8" t="n">
         <v>0</v>
       </c>
       <c r="CG8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CH8" t="n">
         <v>-0</v>
@@ -4691,13 +4691,13 @@
         <v>0</v>
       </c>
       <c r="CN8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO8" t="n">
         <v>0</v>
       </c>
       <c r="CP8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CQ8" t="n">
         <v>-0</v>
@@ -4745,13 +4745,13 @@
         <v>0</v>
       </c>
       <c r="DF8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG8" t="n">
         <v>0</v>
       </c>
       <c r="DH8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DI8" t="n">
         <v>-0</v>
@@ -4772,13 +4772,13 @@
         <v>0</v>
       </c>
       <c r="DO8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP8" t="n">
         <v>0</v>
       </c>
       <c r="DQ8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DR8" t="n">
         <v>-0</v>
@@ -4826,13 +4826,13 @@
         <v>0</v>
       </c>
       <c r="EG8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH8" t="n">
         <v>0</v>
       </c>
       <c r="EI8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EJ8" t="n">
         <v>-0</v>
@@ -4853,13 +4853,13 @@
         <v>0</v>
       </c>
       <c r="EP8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ8" t="n">
         <v>0</v>
       </c>
       <c r="ER8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ES8" t="n">
         <v>-0</v>
@@ -4880,13 +4880,13 @@
         <v>0</v>
       </c>
       <c r="EY8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ8" t="n">
         <v>0</v>
       </c>
       <c r="FA8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FB8" t="n">
         <v>-0</v>
@@ -4907,13 +4907,13 @@
         <v>0</v>
       </c>
       <c r="FH8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FI8" t="n">
         <v>0</v>
       </c>
       <c r="FJ8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FK8" t="n">
         <v>-0</v>
@@ -4987,46 +4987,46 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>0.3179221134606067</v>
       </c>
       <c r="C9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0.02665552596179236</v>
+        <v>-0.1647397239222605</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.007580966345208809</v>
+        <v>-0.0595692770413598</v>
       </c>
       <c r="F9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>-0</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.04304280354741492</v>
+        <v>-0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>0.2572367777062727</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0299431588452281</v>
+        <v>-0.1847745025729399</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.03045486502948664</v>
+        <v>-0.09464455763205641</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -5035,7 +5035,7 @@
         <v>-0</v>
       </c>
       <c r="Q9" t="n">
-        <v>-0.04188850210493785</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -5044,97 +5044,97 @@
         <v>-0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>0.01638068379019082</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>-0.002078752920650622</v>
+        <v>-2.223594695455653e-11</v>
       </c>
       <c r="W9" t="n">
-        <v>-0.00657516464250968</v>
+        <v>-0.01043891497183176</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y9" t="n">
         <v>-0</v>
       </c>
       <c r="Z9" t="n">
-        <v>6.117194622308402e-12</v>
+        <v>0</v>
       </c>
       <c r="AA9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB9" t="n">
         <v>0</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>0.1451441359719224</v>
       </c>
       <c r="AD9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.04116378257348828</v>
+        <v>0.04805400765630993</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.04248029780287375</v>
+        <v>-0.02427107656672078</v>
       </c>
       <c r="AG9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AH9" t="n">
         <v>-0</v>
       </c>
       <c r="AI9" t="n">
-        <v>-0.03918039451614099</v>
+        <v>-0</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AK9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL9" t="n">
-        <v>-0</v>
+        <v>0.03761110849855581</v>
       </c>
       <c r="AM9" t="n">
         <v>0</v>
       </c>
       <c r="AN9" t="n">
-        <v>0.01123482875254169</v>
+        <v>-0.03300857834951033</v>
       </c>
       <c r="AO9" t="n">
-        <v>0.007402978315175815</v>
+        <v>-0.05391954012002573</v>
       </c>
       <c r="AP9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AQ9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR9" t="n">
-        <v>-0.001871048044885135</v>
+        <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT9" t="n">
         <v>-0</v>
       </c>
       <c r="AU9" t="n">
-        <v>-0</v>
+        <v>0.5584485728657187</v>
       </c>
       <c r="AV9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AW9" t="n">
-        <v>-0.004083569410601012</v>
+        <v>-0.01689904771910553</v>
       </c>
       <c r="AX9" t="n">
-        <v>-0.008017923618879038</v>
+        <v>0.1356717201953516</v>
       </c>
       <c r="AY9" t="n">
         <v>0</v>
@@ -5143,7 +5143,7 @@
         <v>0</v>
       </c>
       <c r="BA9" t="n">
-        <v>-0.1152223738541839</v>
+        <v>0</v>
       </c>
       <c r="BB9" t="n">
         <v>0</v>
@@ -5152,52 +5152,52 @@
         <v>0</v>
       </c>
       <c r="BD9" t="n">
-        <v>0</v>
+        <v>0.0108298726392769</v>
       </c>
       <c r="BE9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF9" t="n">
-        <v>0.0442126333518064</v>
+        <v>-0.09428984705304636</v>
       </c>
       <c r="BG9" t="n">
-        <v>0.007216003839106417</v>
+        <v>-0.2097187707363352</v>
       </c>
       <c r="BH9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI9" t="n">
         <v>-0</v>
       </c>
       <c r="BJ9" t="n">
-        <v>0.01381103103282801</v>
+        <v>-0</v>
       </c>
       <c r="BK9" t="n">
         <v>0</v>
       </c>
       <c r="BL9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM9" t="n">
-        <v>-0</v>
+        <v>0.06334375758834193</v>
       </c>
       <c r="BN9" t="n">
         <v>-0</v>
       </c>
       <c r="BO9" t="n">
-        <v>0.01398218831304167</v>
+        <v>0.07659713391347985</v>
       </c>
       <c r="BP9" t="n">
-        <v>0.007192546312147577</v>
+        <v>0.07890440611278826</v>
       </c>
       <c r="BQ9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BR9" t="n">
         <v>-0</v>
       </c>
       <c r="BS9" t="n">
-        <v>0.04267390489503528</v>
+        <v>-0</v>
       </c>
       <c r="BT9" t="n">
         <v>-0</v>
@@ -5206,70 +5206,70 @@
         <v>-0</v>
       </c>
       <c r="BV9" t="n">
-        <v>0</v>
+        <v>-0.02005213959517693</v>
       </c>
       <c r="BW9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX9" t="n">
-        <v>-0.001722015541230955</v>
+        <v>0.0592424907570702</v>
       </c>
       <c r="BY9" t="n">
-        <v>0.003935160455517184</v>
+        <v>0.003175364861980009</v>
       </c>
       <c r="BZ9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CA9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CB9" t="n">
-        <v>0.05829653302173607</v>
+        <v>0</v>
       </c>
       <c r="CC9" t="n">
         <v>0</v>
       </c>
       <c r="CD9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE9" t="n">
-        <v>-0</v>
+        <v>-0.1225295331790329</v>
       </c>
       <c r="CF9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CG9" t="n">
-        <v>-0.01131890577744598</v>
+        <v>0.02356995549767228</v>
       </c>
       <c r="CH9" t="n">
-        <v>0.03229409960107579</v>
+        <v>-0.01583684327240147</v>
       </c>
       <c r="CI9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CJ9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK9" t="n">
-        <v>0.01908474385355031</v>
+        <v>0</v>
       </c>
       <c r="CL9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN9" t="n">
-        <v>0</v>
+        <v>0.03806822100987543</v>
       </c>
       <c r="CO9" t="n">
         <v>0</v>
       </c>
       <c r="CP9" t="n">
-        <v>-0.01898632449154896</v>
+        <v>-0.1751476477340577</v>
       </c>
       <c r="CQ9" t="n">
-        <v>0.04101489193885213</v>
+        <v>-0.1181983978306827</v>
       </c>
       <c r="CR9" t="n">
         <v>0</v>
@@ -5278,115 +5278,115 @@
         <v>-0</v>
       </c>
       <c r="CT9" t="n">
-        <v>0.03781694385638402</v>
+        <v>-0</v>
       </c>
       <c r="CU9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW9" t="n">
-        <v>0</v>
+        <v>-0.107862897263174</v>
       </c>
       <c r="CX9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CY9" t="n">
-        <v>-0.01286033619980472</v>
+        <v>0.04935937399088182</v>
       </c>
       <c r="CZ9" t="n">
-        <v>0.02728053342821735</v>
+        <v>0.001690478057737165</v>
       </c>
       <c r="DA9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DB9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC9" t="n">
-        <v>0.020434871960985</v>
+        <v>-0</v>
       </c>
       <c r="DD9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DE9" t="n">
         <v>0</v>
       </c>
       <c r="DF9" t="n">
-        <v>-0</v>
+        <v>-0.009951681529745295</v>
       </c>
       <c r="DG9" t="n">
         <v>0</v>
       </c>
       <c r="DH9" t="n">
-        <v>-0.01017792005798652</v>
+        <v>0.1046995022406647</v>
       </c>
       <c r="DI9" t="n">
-        <v>-0.01606743841320628</v>
+        <v>0.02640243089546615</v>
       </c>
       <c r="DJ9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DK9" t="n">
         <v>0</v>
       </c>
       <c r="DL9" t="n">
-        <v>-0.02340753550842077</v>
+        <v>0</v>
       </c>
       <c r="DM9" t="n">
         <v>0</v>
       </c>
       <c r="DN9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO9" t="n">
-        <v>0</v>
+        <v>-0.09986260652010957</v>
       </c>
       <c r="DP9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DQ9" t="n">
-        <v>0.006872390733266308</v>
+        <v>0.02691857499223795</v>
       </c>
       <c r="DR9" t="n">
-        <v>-0.009597031598797327</v>
+        <v>-0.03073320795544547</v>
       </c>
       <c r="DS9" t="n">
         <v>0</v>
       </c>
       <c r="DT9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU9" t="n">
-        <v>0.02920298136561903</v>
+        <v>-0</v>
       </c>
       <c r="DV9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DX9" t="n">
-        <v>-0</v>
+        <v>-0.04571776212190443</v>
       </c>
       <c r="DY9" t="n">
         <v>0</v>
       </c>
       <c r="DZ9" t="n">
-        <v>-0.004531042385851106</v>
+        <v>-0.01186040387570168</v>
       </c>
       <c r="EA9" t="n">
-        <v>-0.02400553165450971</v>
+        <v>0.09752088134233201</v>
       </c>
       <c r="EB9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EC9" t="n">
         <v>0</v>
       </c>
       <c r="ED9" t="n">
-        <v>0.01845007751421428</v>
+        <v>-0</v>
       </c>
       <c r="EE9" t="n">
         <v>0</v>
@@ -5395,270 +5395,270 @@
         <v>0</v>
       </c>
       <c r="EG9" t="n">
-        <v>0</v>
+        <v>-0.05445276304106714</v>
       </c>
       <c r="EH9" t="n">
         <v>0</v>
       </c>
       <c r="EI9" t="n">
-        <v>-0.02783019146440742</v>
+        <v>0.01264948451259812</v>
       </c>
       <c r="EJ9" t="n">
-        <v>0.01150584142472443</v>
+        <v>0.02937147571000291</v>
       </c>
       <c r="EK9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EL9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM9" t="n">
-        <v>0.01584142928082957</v>
+        <v>-0</v>
       </c>
       <c r="EN9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EO9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EP9" t="n">
-        <v>0</v>
+        <v>-0.0867542033432826</v>
       </c>
       <c r="EQ9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER9" t="n">
-        <v>-0.01710690540711516</v>
+        <v>-0.05305468427083998</v>
       </c>
       <c r="ES9" t="n">
-        <v>0.05501342867669327</v>
+        <v>-0.04842663227291883</v>
       </c>
       <c r="ET9" t="n">
         <v>-0</v>
       </c>
       <c r="EU9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV9" t="n">
-        <v>0.04848020308589789</v>
+        <v>0</v>
       </c>
       <c r="EW9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY9" t="n">
-        <v>-0</v>
+        <v>-0.1089140830946097</v>
       </c>
       <c r="EZ9" t="n">
         <v>-0</v>
       </c>
       <c r="FA9" t="n">
-        <v>-0.01214821791620475</v>
+        <v>0.03773907851197563</v>
       </c>
       <c r="FB9" t="n">
-        <v>0.02973222923871997</v>
+        <v>-0.008663868234196626</v>
       </c>
       <c r="FC9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FD9" t="n">
         <v>-0</v>
       </c>
       <c r="FE9" t="n">
-        <v>0.02479620608110141</v>
+        <v>0</v>
       </c>
       <c r="FF9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG9" t="n">
         <v>-0</v>
       </c>
       <c r="FH9" t="n">
-        <v>-0</v>
+        <v>-0.07574526038615911</v>
       </c>
       <c r="FI9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ9" t="n">
-        <v>-0.0298721006034519</v>
+        <v>0.04709458881408575</v>
       </c>
       <c r="FK9" t="n">
-        <v>-0.01190231968315292</v>
+        <v>0.1445225861828688</v>
       </c>
       <c r="FL9" t="n">
         <v>0</v>
       </c>
       <c r="FM9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN9" t="n">
-        <v>0.02404854792111595</v>
+        <v>-0</v>
       </c>
       <c r="FO9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP9" t="n">
         <v>-0</v>
       </c>
       <c r="FQ9" t="n">
-        <v>-0</v>
+        <v>0.06153756246954555</v>
       </c>
       <c r="FR9" t="n">
         <v>-0</v>
       </c>
       <c r="FS9" t="n">
-        <v>0.01027062357919295</v>
+        <v>0.06878030862270362</v>
       </c>
       <c r="FT9" t="n">
-        <v>0.1286742965407852</v>
+        <v>0.2086948098341997</v>
       </c>
       <c r="FU9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FV9" t="n">
         <v>-0</v>
       </c>
       <c r="FW9" t="n">
-        <v>0.0007384991623912214</v>
+        <v>-0</v>
       </c>
       <c r="FX9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY9" t="n">
         <v>-0</v>
       </c>
       <c r="FZ9" t="n">
-        <v>0</v>
+        <v>-5.381144749810971e-05</v>
       </c>
       <c r="GA9" t="n">
         <v>-0</v>
       </c>
       <c r="GB9" t="n">
-        <v>-0.01380327934744808</v>
+        <v>-0.01817027770957336</v>
       </c>
       <c r="GC9" t="n">
         <v>0</v>
       </c>
       <c r="GD9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE9" t="n">
         <v>-0</v>
       </c>
       <c r="GF9" t="n">
-        <v>0.01287421643378127</v>
+        <v>0</v>
       </c>
       <c r="GG9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B10" t="n">
-        <v>-0</v>
+        <v>0.3242559175999479</v>
       </c>
       <c r="C10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0.134792184337773</v>
+        <v>-0.1702359215666998</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.0197060736875526</v>
+        <v>-0.1289787761277523</v>
       </c>
       <c r="F10" t="n">
-        <v>0.07835921029724545</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.1509544550015239</v>
+        <v>0.01567006202966175</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>-0</v>
+        <v>0.2213088711628387</v>
       </c>
       <c r="L10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>0.1544211363492018</v>
+        <v>-0.1620361352487222</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.06537442246122205</v>
+        <v>-0.1568405561762785</v>
       </c>
       <c r="O10" t="n">
-        <v>0.02989467660612342</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.1638716275449013</v>
+        <v>0.006910791819385042</v>
       </c>
       <c r="R10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>-0</v>
+        <v>0.02429481555918948</v>
       </c>
       <c r="U10" t="n">
         <v>-0</v>
       </c>
       <c r="V10" t="n">
-        <v>-0.02772319102970862</v>
+        <v>-0.017991307141953</v>
       </c>
       <c r="W10" t="n">
-        <v>-0.005447678362697113</v>
+        <v>-0.03162556466614014</v>
       </c>
       <c r="X10" t="n">
-        <v>0.02934704787802349</v>
+        <v>-0</v>
       </c>
       <c r="Y10" t="n">
         <v>-0</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.02133030141082645</v>
+        <v>0.03550995888023271</v>
       </c>
       <c r="AA10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AC10" t="n">
-        <v>-0</v>
+        <v>0.05802564371326514</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.1919026793882823</v>
+        <v>0.05556039472056058</v>
       </c>
       <c r="AF10" t="n">
-        <v>-0.002156184370369567</v>
+        <v>0.01881612815494495</v>
       </c>
       <c r="AG10" t="n">
-        <v>-0.0009672913702954776</v>
+        <v>0</v>
       </c>
       <c r="AH10" t="n">
         <v>-0</v>
       </c>
       <c r="AI10" t="n">
-        <v>-0.1571755526585234</v>
+        <v>0.02957057597977448</v>
       </c>
       <c r="AJ10" t="n">
         <v>0</v>
@@ -5667,52 +5667,52 @@
         <v>0</v>
       </c>
       <c r="AL10" t="n">
-        <v>-0</v>
+        <v>0.01389233517744302</v>
       </c>
       <c r="AM10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN10" t="n">
-        <v>-0.02697738877908693</v>
+        <v>-0.03464017450125513</v>
       </c>
       <c r="AO10" t="n">
-        <v>0.01472931620470971</v>
+        <v>-0.05883319852901644</v>
       </c>
       <c r="AP10" t="n">
-        <v>-0.03723624708449572</v>
+        <v>0</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AR10" t="n">
-        <v>0.03624641443892505</v>
+        <v>-0.01517287232451744</v>
       </c>
       <c r="AS10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT10" t="n">
         <v>-0</v>
       </c>
       <c r="AU10" t="n">
-        <v>-0</v>
+        <v>0.2827071085281042</v>
       </c>
       <c r="AV10" t="n">
         <v>-0</v>
       </c>
       <c r="AW10" t="n">
-        <v>-0.03781169947717063</v>
+        <v>-0.05452564836297851</v>
       </c>
       <c r="AX10" t="n">
-        <v>-0.1033799901042767</v>
+        <v>-0.04786235290592098</v>
       </c>
       <c r="AY10" t="n">
-        <v>-0.04783449962296545</v>
+        <v>0</v>
       </c>
       <c r="AZ10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BA10" t="n">
-        <v>-0.3212816760821376</v>
+        <v>-0.1189864808885801</v>
       </c>
       <c r="BB10" t="n">
         <v>0</v>
@@ -5721,214 +5721,214 @@
         <v>0</v>
       </c>
       <c r="BD10" t="n">
-        <v>-0</v>
+        <v>-0.007000034031850705</v>
       </c>
       <c r="BE10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF10" t="n">
-        <v>0.1040553906862888</v>
+        <v>-0.09012694355466713</v>
       </c>
       <c r="BG10" t="n">
-        <v>0.003428929675283949</v>
+        <v>-0.2295831042164329</v>
       </c>
       <c r="BH10" t="n">
-        <v>-0.005012810369271375</v>
+        <v>0</v>
       </c>
       <c r="BI10" t="n">
         <v>-0</v>
       </c>
       <c r="BJ10" t="n">
-        <v>0.04444346138382402</v>
+        <v>0.001688505889214575</v>
       </c>
       <c r="BK10" t="n">
         <v>0</v>
       </c>
       <c r="BL10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM10" t="n">
-        <v>-0</v>
+        <v>0.1044364524707548</v>
       </c>
       <c r="BN10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BO10" t="n">
-        <v>-0.04230068145765401</v>
+        <v>0.1373173489439664</v>
       </c>
       <c r="BP10" t="n">
-        <v>-0.005796841593454769</v>
+        <v>0.007584019066766386</v>
       </c>
       <c r="BQ10" t="n">
-        <v>-0.09227155109150562</v>
+        <v>0</v>
       </c>
       <c r="BR10" t="n">
         <v>-0</v>
       </c>
       <c r="BS10" t="n">
-        <v>0.1030860126071024</v>
+        <v>0.03003650372244126</v>
       </c>
       <c r="BT10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BU10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BV10" t="n">
-        <v>-0</v>
+        <v>0.1214429476763036</v>
       </c>
       <c r="BW10" t="n">
         <v>0</v>
       </c>
       <c r="BX10" t="n">
-        <v>-0.07239073396812146</v>
+        <v>0.006359682959073994</v>
       </c>
       <c r="BY10" t="n">
-        <v>0.01806139634636608</v>
+        <v>0.01116392230574837</v>
       </c>
       <c r="BZ10" t="n">
-        <v>0.01049709992591046</v>
+        <v>-0</v>
       </c>
       <c r="CA10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CB10" t="n">
-        <v>0.01333263860322394</v>
+        <v>0.006019227172480189</v>
       </c>
       <c r="CC10" t="n">
         <v>0</v>
       </c>
       <c r="CD10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE10" t="n">
-        <v>-0</v>
+        <v>-0.09624857967574864</v>
       </c>
       <c r="CF10" t="n">
         <v>0</v>
       </c>
       <c r="CG10" t="n">
-        <v>-0.03194081340226313</v>
+        <v>0.03882622814843542</v>
       </c>
       <c r="CH10" t="n">
-        <v>0.0208033120229559</v>
+        <v>-0.0006424980232695485</v>
       </c>
       <c r="CI10" t="n">
-        <v>-0.0001229227413234647</v>
+        <v>-0</v>
       </c>
       <c r="CJ10" t="n">
         <v>-0</v>
       </c>
       <c r="CK10" t="n">
-        <v>0.09005938558604661</v>
+        <v>0.01873791472583182</v>
       </c>
       <c r="CL10" t="n">
         <v>0</v>
       </c>
       <c r="CM10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN10" t="n">
-        <v>-0</v>
+        <v>0.1070114708638078</v>
       </c>
       <c r="CO10" t="n">
         <v>0</v>
       </c>
       <c r="CP10" t="n">
-        <v>0.2197383508002679</v>
+        <v>-0.03818366708962428</v>
       </c>
       <c r="CQ10" t="n">
-        <v>0.1428035551951541</v>
+        <v>-0.03403174673437134</v>
       </c>
       <c r="CR10" t="n">
-        <v>-0.04341316039626173</v>
+        <v>0</v>
       </c>
       <c r="CS10" t="n">
         <v>-0</v>
       </c>
       <c r="CT10" t="n">
-        <v>0.05587405820207609</v>
+        <v>0.05785791500934768</v>
       </c>
       <c r="CU10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW10" t="n">
-        <v>0</v>
+        <v>-0.08092830576970123</v>
       </c>
       <c r="CX10" t="n">
         <v>-0</v>
       </c>
       <c r="CY10" t="n">
-        <v>-0.04018971174444941</v>
+        <v>0.06813412174373706</v>
       </c>
       <c r="CZ10" t="n">
-        <v>0.02517138727050796</v>
+        <v>-0.001188941667092684</v>
       </c>
       <c r="DA10" t="n">
-        <v>0.04233196564164183</v>
+        <v>0</v>
       </c>
       <c r="DB10" t="n">
         <v>0</v>
       </c>
       <c r="DC10" t="n">
-        <v>0.06939559885616577</v>
+        <v>0.01821326732488437</v>
       </c>
       <c r="DD10" t="n">
         <v>-0</v>
       </c>
       <c r="DE10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF10" t="n">
-        <v>0</v>
+        <v>-0.1070017898552397</v>
       </c>
       <c r="DG10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DH10" t="n">
-        <v>-0.04640898910329885</v>
+        <v>0.07589780726453228</v>
       </c>
       <c r="DI10" t="n">
-        <v>-0.02105397584267447</v>
+        <v>0.01715357811718839</v>
       </c>
       <c r="DJ10" t="n">
-        <v>0.03702674128865698</v>
+        <v>0</v>
       </c>
       <c r="DK10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DL10" t="n">
-        <v>-0.03756683417403112</v>
+        <v>0.0008886115097908421</v>
       </c>
       <c r="DM10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DN10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO10" t="n">
-        <v>0</v>
+        <v>-0.09120689683407796</v>
       </c>
       <c r="DP10" t="n">
         <v>0</v>
       </c>
       <c r="DQ10" t="n">
-        <v>0.1555023683721729</v>
+        <v>0.001771558784648345</v>
       </c>
       <c r="DR10" t="n">
-        <v>-0.09380718248685604</v>
+        <v>0.04387918388695911</v>
       </c>
       <c r="DS10" t="n">
-        <v>-0.1087075694428511</v>
+        <v>0</v>
       </c>
       <c r="DT10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU10" t="n">
-        <v>0.1120400002350029</v>
+        <v>0.02378363138994948</v>
       </c>
       <c r="DV10" t="n">
         <v>0</v>
@@ -5937,52 +5937,52 @@
         <v>0</v>
       </c>
       <c r="DX10" t="n">
-        <v>-0</v>
+        <v>0.04116677885661672</v>
       </c>
       <c r="DY10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ10" t="n">
-        <v>0.03963837848263132</v>
+        <v>0.0616910918641662</v>
       </c>
       <c r="EA10" t="n">
-        <v>-0.09859951836550421</v>
+        <v>0.1033096043822433</v>
       </c>
       <c r="EB10" t="n">
-        <v>0.07203955475423274</v>
+        <v>-0</v>
       </c>
       <c r="EC10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED10" t="n">
-        <v>-0.02561201380545726</v>
+        <v>0.01834514822200275</v>
       </c>
       <c r="EE10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG10" t="n">
-        <v>-0</v>
+        <v>0.01393898206693834</v>
       </c>
       <c r="EH10" t="n">
         <v>0</v>
       </c>
       <c r="EI10" t="n">
-        <v>-0.1191122094761157</v>
+        <v>0.007291170418989234</v>
       </c>
       <c r="EJ10" t="n">
-        <v>-0.02010921637303638</v>
+        <v>0.03019113846167033</v>
       </c>
       <c r="EK10" t="n">
-        <v>0.1113517529807383</v>
+        <v>-0</v>
       </c>
       <c r="EL10" t="n">
         <v>-0</v>
       </c>
       <c r="EM10" t="n">
-        <v>-0.0117797827088871</v>
+        <v>0.07024200318724699</v>
       </c>
       <c r="EN10" t="n">
         <v>0</v>
@@ -5991,136 +5991,136 @@
         <v>0</v>
       </c>
       <c r="EP10" t="n">
-        <v>-0</v>
+        <v>-0.1123824701268607</v>
       </c>
       <c r="EQ10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ER10" t="n">
-        <v>-0.08046498622701656</v>
+        <v>0.06826389477308842</v>
       </c>
       <c r="ES10" t="n">
-        <v>0.1264524749657704</v>
+        <v>-0.01955427320570292</v>
       </c>
       <c r="ET10" t="n">
-        <v>0.09932560295500464</v>
+        <v>-0</v>
       </c>
       <c r="EU10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV10" t="n">
-        <v>-0.04008600346626781</v>
+        <v>-0.02519392373199158</v>
       </c>
       <c r="EW10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX10" t="n">
         <v>0</v>
       </c>
       <c r="EY10" t="n">
-        <v>-0</v>
+        <v>-0.0866267222628111</v>
       </c>
       <c r="EZ10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FA10" t="n">
-        <v>-0.03780456310514264</v>
+        <v>0.07429463359571289</v>
       </c>
       <c r="FB10" t="n">
-        <v>0.04103633956850038</v>
+        <v>0.01453717601659394</v>
       </c>
       <c r="FC10" t="n">
-        <v>0.02410494955649799</v>
+        <v>-0</v>
       </c>
       <c r="FD10" t="n">
         <v>-0</v>
       </c>
       <c r="FE10" t="n">
-        <v>0.08644993044849549</v>
+        <v>0.01599471844250073</v>
       </c>
       <c r="FF10" t="n">
         <v>0</v>
       </c>
       <c r="FG10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FH10" t="n">
-        <v>-0</v>
+        <v>0.03805690896911727</v>
       </c>
       <c r="FI10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FJ10" t="n">
-        <v>-0.1123257820340998</v>
+        <v>-0.05128090278693257</v>
       </c>
       <c r="FK10" t="n">
-        <v>-0.03676922493437585</v>
+        <v>0.09747802404617768</v>
       </c>
       <c r="FL10" t="n">
-        <v>0.04489985295844763</v>
+        <v>0</v>
       </c>
       <c r="FM10" t="n">
         <v>-0</v>
       </c>
       <c r="FN10" t="n">
-        <v>-0.09955389176373684</v>
+        <v>0.02171331513930543</v>
       </c>
       <c r="FO10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ10" t="n">
-        <v>0</v>
+        <v>-0.04830345152723463</v>
       </c>
       <c r="FR10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS10" t="n">
-        <v>0.1667439542691811</v>
+        <v>0.004435146938366403</v>
       </c>
       <c r="FT10" t="n">
-        <v>0.07081116571465487</v>
+        <v>-0.05984147734364812</v>
       </c>
       <c r="FU10" t="n">
-        <v>-0.01226201628554045</v>
+        <v>0</v>
       </c>
       <c r="FV10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FW10" t="n">
-        <v>0.09785094608110112</v>
+        <v>0.125887836242482</v>
       </c>
       <c r="FX10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY10" t="n">
         <v>-0</v>
       </c>
       <c r="FZ10" t="n">
-        <v>0</v>
+        <v>-0.02940292558483586</v>
       </c>
       <c r="GA10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GB10" t="n">
-        <v>-0.02023455676923262</v>
+        <v>-0.005251292258420202</v>
       </c>
       <c r="GC10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD10" t="n">
-        <v>0.09590268185076102</v>
+        <v>-0</v>
       </c>
       <c r="GE10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF10" t="n">
-        <v>0.07616213782504389</v>
+        <v>0.1117978840448396</v>
       </c>
       <c r="GG10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="11">
@@ -6128,22 +6128,22 @@
         <v>0</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.06503156201073687</v>
+        <v>0.03771269863430635</v>
       </c>
       <c r="C11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0.09527453722185973</v>
+        <v>-0</v>
       </c>
       <c r="E11" t="n">
-        <v>0.02463901308534931</v>
+        <v>-0.07284522238079591</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>-0.05418589992677872</v>
       </c>
       <c r="G11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -6155,73 +6155,73 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.0540593604882121</v>
+        <v>-0.01962179874231533</v>
       </c>
       <c r="L11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0.06711284142174984</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0.01148997537338045</v>
+        <v>-0.08227530595443676</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>-0.04662844420246236</v>
       </c>
       <c r="P11" t="n">
         <v>-0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-0.002922349921661405</v>
+        <v>-0.0009066779054354866</v>
       </c>
       <c r="U11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>-0.02175925810801805</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>-0.03096562059048453</v>
+        <v>-0.00495406889070229</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>0.00525869068361562</v>
       </c>
       <c r="Y11" t="n">
         <v>-0</v>
       </c>
       <c r="Z11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA11" t="n">
         <v>-0</v>
       </c>
       <c r="AB11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC11" t="n">
-        <v>-0.0615019788251304</v>
+        <v>0.04746175710952659</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.07020170677539816</v>
+        <v>-0</v>
       </c>
       <c r="AF11" t="n">
-        <v>-0.04109855271780057</v>
+        <v>0.04519609450072039</v>
       </c>
       <c r="AG11" t="n">
-        <v>0</v>
+        <v>0.02351535017688422</v>
       </c>
       <c r="AH11" t="n">
         <v>0</v>
@@ -6236,46 +6236,46 @@
         <v>0</v>
       </c>
       <c r="AL11" t="n">
-        <v>-0.01377691682286478</v>
+        <v>-0.009692380743570289</v>
       </c>
       <c r="AM11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN11" t="n">
-        <v>-0.001381395064193706</v>
+        <v>0</v>
       </c>
       <c r="AO11" t="n">
-        <v>-0.006118747441417534</v>
+        <v>-0.03644100452018106</v>
       </c>
       <c r="AP11" t="n">
-        <v>-0</v>
+        <v>-0.008700912337727473</v>
       </c>
       <c r="AQ11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AS11" t="n">
         <v>-0</v>
       </c>
       <c r="AT11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU11" t="n">
-        <v>-0.02262585984851813</v>
+        <v>0.0710829884113456</v>
       </c>
       <c r="AV11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AW11" t="n">
-        <v>0.02283024224821799</v>
+        <v>0</v>
       </c>
       <c r="AX11" t="n">
-        <v>-0.003505797470297373</v>
+        <v>-0.05914620791578212</v>
       </c>
       <c r="AY11" t="n">
-        <v>0</v>
+        <v>-0.004220653466732805</v>
       </c>
       <c r="AZ11" t="n">
         <v>0</v>
@@ -6287,22 +6287,22 @@
         <v>0</v>
       </c>
       <c r="BC11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD11" t="n">
-        <v>-0.03393598332800272</v>
+        <v>0.007579658420612973</v>
       </c>
       <c r="BE11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF11" t="n">
-        <v>0.07823019322893014</v>
+        <v>0</v>
       </c>
       <c r="BG11" t="n">
-        <v>0.005652225955786333</v>
+        <v>-0.05772306766173121</v>
       </c>
       <c r="BH11" t="n">
-        <v>-0</v>
+        <v>-0.07093776927745206</v>
       </c>
       <c r="BI11" t="n">
         <v>-0</v>
@@ -6311,28 +6311,28 @@
         <v>0</v>
       </c>
       <c r="BK11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BM11" t="n">
-        <v>0.05460862938154282</v>
+        <v>0.08222703940039466</v>
       </c>
       <c r="BN11" t="n">
         <v>-0</v>
       </c>
       <c r="BO11" t="n">
-        <v>0.02123046471809397</v>
+        <v>-0</v>
       </c>
       <c r="BP11" t="n">
-        <v>0.01101438797818362</v>
+        <v>0.04746607016945629</v>
       </c>
       <c r="BQ11" t="n">
-        <v>0</v>
+        <v>0.03385961794824316</v>
       </c>
       <c r="BR11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS11" t="n">
         <v>0</v>
@@ -6344,19 +6344,19 @@
         <v>0</v>
       </c>
       <c r="BV11" t="n">
-        <v>-0.01066547092705167</v>
+        <v>0.01154874591071053</v>
       </c>
       <c r="BW11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX11" t="n">
-        <v>0.02262039774453457</v>
+        <v>0</v>
       </c>
       <c r="BY11" t="n">
-        <v>-0.01530535413860844</v>
+        <v>-0.02198489875179875</v>
       </c>
       <c r="BZ11" t="n">
-        <v>-0</v>
+        <v>0.004353975391699954</v>
       </c>
       <c r="CA11" t="n">
         <v>-0</v>
@@ -6365,190 +6365,190 @@
         <v>0</v>
       </c>
       <c r="CC11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE11" t="n">
-        <v>0.03172231202702489</v>
+        <v>0.00135295292502584</v>
       </c>
       <c r="CF11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CG11" t="n">
-        <v>-0.02157540761882818</v>
+        <v>0</v>
       </c>
       <c r="CH11" t="n">
-        <v>0.01492511313791149</v>
+        <v>0.01760180089387806</v>
       </c>
       <c r="CI11" t="n">
-        <v>0</v>
+        <v>0.02618601236303165</v>
       </c>
       <c r="CJ11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CK11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CL11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CM11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN11" t="n">
-        <v>0.0224535095740739</v>
+        <v>-0.0100028775633461</v>
       </c>
       <c r="CO11" t="n">
         <v>0</v>
       </c>
       <c r="CP11" t="n">
-        <v>-0.02322676115172984</v>
+        <v>-0</v>
       </c>
       <c r="CQ11" t="n">
-        <v>0.07933025308651913</v>
+        <v>0.01647833989939039</v>
       </c>
       <c r="CR11" t="n">
-        <v>0</v>
+        <v>0.02206817509768443</v>
       </c>
       <c r="CS11" t="n">
         <v>0</v>
       </c>
       <c r="CT11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CU11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW11" t="n">
-        <v>0.0330161315381346</v>
+        <v>0.01472388664327516</v>
       </c>
       <c r="CX11" t="n">
         <v>-0</v>
       </c>
       <c r="CY11" t="n">
-        <v>-0.01785468918015669</v>
+        <v>-0</v>
       </c>
       <c r="CZ11" t="n">
-        <v>0.009017551387343696</v>
+        <v>0.01611775300005169</v>
       </c>
       <c r="DA11" t="n">
-        <v>0</v>
+        <v>0.01855003268036398</v>
       </c>
       <c r="DB11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DC11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DD11" t="n">
         <v>0</v>
       </c>
       <c r="DE11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DF11" t="n">
-        <v>0.03206878412878027</v>
+        <v>0.01263616914422087</v>
       </c>
       <c r="DG11" t="n">
         <v>-0</v>
       </c>
       <c r="DH11" t="n">
-        <v>-0.02251759120874833</v>
+        <v>-0</v>
       </c>
       <c r="DI11" t="n">
-        <v>-0.01472792775490156</v>
+        <v>-0.000641729683063632</v>
       </c>
       <c r="DJ11" t="n">
-        <v>0</v>
+        <v>0.02338009931331589</v>
       </c>
       <c r="DK11" t="n">
         <v>0</v>
       </c>
       <c r="DL11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DM11" t="n">
         <v>0</v>
       </c>
       <c r="DN11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO11" t="n">
-        <v>0.0196770498145493</v>
+        <v>0.005519652557754151</v>
       </c>
       <c r="DP11" t="n">
         <v>0</v>
       </c>
       <c r="DQ11" t="n">
-        <v>0.001848890717115011</v>
+        <v>0</v>
       </c>
       <c r="DR11" t="n">
-        <v>0.03381398595974044</v>
+        <v>0.02659954212259674</v>
       </c>
       <c r="DS11" t="n">
-        <v>0</v>
+        <v>-0.00414969419517269</v>
       </c>
       <c r="DT11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DW11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DX11" t="n">
-        <v>0.02637083712381482</v>
+        <v>-0.00693261354146053</v>
       </c>
       <c r="DY11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ11" t="n">
-        <v>0.03491171941623016</v>
+        <v>0</v>
       </c>
       <c r="EA11" t="n">
-        <v>-0.002847349152706284</v>
+        <v>-0.0342750278502947</v>
       </c>
       <c r="EB11" t="n">
-        <v>-0</v>
+        <v>-0.01051443514758996</v>
       </c>
       <c r="EC11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EE11" t="n">
         <v>-0</v>
       </c>
       <c r="EF11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EG11" t="n">
-        <v>0.0342916352743307</v>
+        <v>0.0113418575042054</v>
       </c>
       <c r="EH11" t="n">
         <v>-0</v>
       </c>
       <c r="EI11" t="n">
-        <v>-0.01380147207187997</v>
+        <v>0</v>
       </c>
       <c r="EJ11" t="n">
-        <v>-0.02330239605366516</v>
+        <v>0.008745318381437583</v>
       </c>
       <c r="EK11" t="n">
-        <v>0</v>
+        <v>0.00477046294942826</v>
       </c>
       <c r="EL11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM11" t="n">
         <v>0</v>
@@ -6560,19 +6560,19 @@
         <v>0</v>
       </c>
       <c r="EP11" t="n">
-        <v>0.009282026499459427</v>
+        <v>0.001148188590191163</v>
       </c>
       <c r="EQ11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ER11" t="n">
-        <v>0.00157785641744309</v>
+        <v>0</v>
       </c>
       <c r="ES11" t="n">
-        <v>0.04172313544250462</v>
+        <v>0.00450412311576691</v>
       </c>
       <c r="ET11" t="n">
-        <v>-0</v>
+        <v>0.02173675864639018</v>
       </c>
       <c r="EU11" t="n">
         <v>0</v>
@@ -6581,55 +6581,55 @@
         <v>0</v>
       </c>
       <c r="EW11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EX11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY11" t="n">
-        <v>0.02877559590875264</v>
+        <v>0.00921735790844553</v>
       </c>
       <c r="EZ11" t="n">
         <v>-0</v>
       </c>
       <c r="FA11" t="n">
-        <v>-0.01744982799463789</v>
+        <v>0</v>
       </c>
       <c r="FB11" t="n">
-        <v>0.01750763720949653</v>
+        <v>0.02269656904057981</v>
       </c>
       <c r="FC11" t="n">
-        <v>0</v>
+        <v>0.02364786444082068</v>
       </c>
       <c r="FD11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FE11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF11" t="n">
         <v>-0</v>
       </c>
       <c r="FG11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FH11" t="n">
-        <v>0.04128906796926863</v>
+        <v>-0.005383931894720102</v>
       </c>
       <c r="FI11" t="n">
         <v>0</v>
       </c>
       <c r="FJ11" t="n">
-        <v>-0.0354266053074476</v>
+        <v>-0</v>
       </c>
       <c r="FK11" t="n">
-        <v>-0.0222342686495984</v>
+        <v>-0.04556906611552421</v>
       </c>
       <c r="FL11" t="n">
-        <v>0</v>
+        <v>0.03468080071755338</v>
       </c>
       <c r="FM11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN11" t="n">
         <v>-0</v>
@@ -6638,55 +6638,55 @@
         <v>0</v>
       </c>
       <c r="FP11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ11" t="n">
-        <v>0.002228117440493083</v>
+        <v>-0.01361601686611877</v>
       </c>
       <c r="FR11" t="n">
         <v>0</v>
       </c>
       <c r="FS11" t="n">
-        <v>0.07577260865024657</v>
+        <v>-0</v>
       </c>
       <c r="FT11" t="n">
-        <v>0.04256846259043762</v>
+        <v>0.01878252735084786</v>
       </c>
       <c r="FU11" t="n">
-        <v>0</v>
+        <v>0.03851158036905351</v>
       </c>
       <c r="FV11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FW11" t="n">
         <v>-0</v>
       </c>
       <c r="FX11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY11" t="n">
         <v>-0</v>
       </c>
       <c r="FZ11" t="n">
-        <v>0.01162709124521205</v>
+        <v>-0.04020530860974372</v>
       </c>
       <c r="GA11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GB11" t="n">
-        <v>0.03024455176456457</v>
+        <v>-0</v>
       </c>
       <c r="GC11" t="n">
         <v>-0</v>
       </c>
       <c r="GD11" t="n">
-        <v>-0</v>
+        <v>0.02958379918168565</v>
       </c>
       <c r="GE11" t="n">
         <v>0</v>
       </c>
       <c r="GF11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG11" t="n">
         <v>0</v>
@@ -6694,19 +6694,19 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B12" t="n">
-        <v>-0</v>
+        <v>0.4601476600043536</v>
       </c>
       <c r="C12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1659682115279271</v>
+        <v>-0.3474009655473532</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.0001651565685608537</v>
+        <v>-0.1344470930148578</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -6715,34 +6715,34 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.1614735261482496</v>
+        <v>-0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>0.3027312094637791</v>
       </c>
       <c r="L12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0.1818233921690535</v>
+        <v>-0.3405171765351987</v>
       </c>
       <c r="N12" t="n">
-        <v>-0.07319740343715497</v>
+        <v>-0.1261301496566502</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q12" t="n">
-        <v>-0.1748580144284943</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -6751,43 +6751,43 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>0.05733482377695589</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>-0.01162719802237412</v>
+        <v>-0.02145082212079456</v>
       </c>
       <c r="W12" t="n">
-        <v>-0.02414340529411385</v>
+        <v>-0.04625941516326223</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y12" t="n">
         <v>-0</v>
       </c>
       <c r="Z12" t="n">
-        <v>-0.007525382563117414</v>
+        <v>0</v>
       </c>
       <c r="AA12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AC12" t="n">
-        <v>-0</v>
+        <v>0.1675449849642255</v>
       </c>
       <c r="AD12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.1515320679974876</v>
+        <v>0.1194273091833447</v>
       </c>
       <c r="AF12" t="n">
-        <v>-0.02311051991299499</v>
+        <v>0.04371380882731901</v>
       </c>
       <c r="AG12" t="n">
         <v>0</v>
@@ -6796,25 +6796,25 @@
         <v>-0</v>
       </c>
       <c r="AI12" t="n">
-        <v>-0.04633152165171699</v>
+        <v>-0</v>
       </c>
       <c r="AJ12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AK12" t="n">
         <v>0</v>
       </c>
       <c r="AL12" t="n">
-        <v>-0</v>
+        <v>0.04539076939295304</v>
       </c>
       <c r="AM12" t="n">
         <v>0</v>
       </c>
       <c r="AN12" t="n">
-        <v>0.006536362060760492</v>
+        <v>-0.04069637384608842</v>
       </c>
       <c r="AO12" t="n">
-        <v>0.03719882284696743</v>
+        <v>-0.08576122024636278</v>
       </c>
       <c r="AP12" t="n">
         <v>0</v>
@@ -6823,34 +6823,34 @@
         <v>0</v>
       </c>
       <c r="AR12" t="n">
-        <v>-0.01419933563831891</v>
+        <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT12" t="n">
         <v>-0</v>
       </c>
       <c r="AU12" t="n">
-        <v>-0</v>
+        <v>0.4234529436562283</v>
       </c>
       <c r="AV12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AW12" t="n">
-        <v>-0.01077543531858843</v>
+        <v>-0.08839968923540002</v>
       </c>
       <c r="AX12" t="n">
-        <v>-0.07429429812676752</v>
+        <v>-0.004754948956134694</v>
       </c>
       <c r="AY12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AZ12" t="n">
         <v>0</v>
       </c>
       <c r="BA12" t="n">
-        <v>-0.2595462622654595</v>
+        <v>0</v>
       </c>
       <c r="BB12" t="n">
         <v>0</v>
@@ -6859,124 +6859,124 @@
         <v>0</v>
       </c>
       <c r="BD12" t="n">
-        <v>0</v>
+        <v>0.003770499448439103</v>
       </c>
       <c r="BE12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF12" t="n">
-        <v>0.1738161109437733</v>
+        <v>-0.09827722616081529</v>
       </c>
       <c r="BG12" t="n">
-        <v>0.03648521055110719</v>
+        <v>-0.2167906577379461</v>
       </c>
       <c r="BH12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI12" t="n">
         <v>-0</v>
       </c>
       <c r="BJ12" t="n">
-        <v>0.02301066389681338</v>
+        <v>0</v>
       </c>
       <c r="BK12" t="n">
         <v>0</v>
       </c>
       <c r="BL12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM12" t="n">
-        <v>-0</v>
+        <v>0.1191896629659722</v>
       </c>
       <c r="BN12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BO12" t="n">
-        <v>0.003548751755403905</v>
+        <v>0.08000471380574327</v>
       </c>
       <c r="BP12" t="n">
-        <v>-0.01285486151986085</v>
+        <v>-0.001444719173573839</v>
       </c>
       <c r="BQ12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BR12" t="n">
         <v>-0</v>
       </c>
       <c r="BS12" t="n">
-        <v>0.1033907609996777</v>
+        <v>0</v>
       </c>
       <c r="BT12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BU12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV12" t="n">
-        <v>-0</v>
+        <v>0.1426814239814305</v>
       </c>
       <c r="BW12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX12" t="n">
-        <v>-0.02007561121893828</v>
+        <v>-0.0282836365704555</v>
       </c>
       <c r="BY12" t="n">
-        <v>-0.0521223280684227</v>
+        <v>-0.03970649072910744</v>
       </c>
       <c r="BZ12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CA12" t="n">
         <v>0</v>
       </c>
       <c r="CB12" t="n">
-        <v>-0.03962950161307957</v>
+        <v>0</v>
       </c>
       <c r="CC12" t="n">
         <v>0</v>
       </c>
       <c r="CD12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE12" t="n">
-        <v>-0</v>
+        <v>-0.1234926895667468</v>
       </c>
       <c r="CF12" t="n">
         <v>0</v>
       </c>
       <c r="CG12" t="n">
-        <v>-0.04424360881765848</v>
+        <v>0.02895690708351668</v>
       </c>
       <c r="CH12" t="n">
-        <v>0.03341414170141024</v>
+        <v>-0.01839918528898473</v>
       </c>
       <c r="CI12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CJ12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK12" t="n">
-        <v>0.06408971275993944</v>
+        <v>0</v>
       </c>
       <c r="CL12" t="n">
         <v>0</v>
       </c>
       <c r="CM12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN12" t="n">
-        <v>-0</v>
+        <v>0.03959432431050407</v>
       </c>
       <c r="CO12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CP12" t="n">
-        <v>0.04006816001923837</v>
+        <v>-0.1828643529983759</v>
       </c>
       <c r="CQ12" t="n">
-        <v>0.1478326447895351</v>
+        <v>-0.0754405736143826</v>
       </c>
       <c r="CR12" t="n">
         <v>0</v>
@@ -6985,142 +6985,142 @@
         <v>-0</v>
       </c>
       <c r="CT12" t="n">
-        <v>0.09195498159065599</v>
+        <v>-0</v>
       </c>
       <c r="CU12" t="n">
         <v>0</v>
       </c>
       <c r="CV12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW12" t="n">
-        <v>0</v>
+        <v>-0.09265578710087979</v>
       </c>
       <c r="CX12" t="n">
         <v>-0</v>
       </c>
       <c r="CY12" t="n">
-        <v>-0.0411479242417324</v>
+        <v>0.06671341745375926</v>
       </c>
       <c r="CZ12" t="n">
-        <v>0.02899950335871858</v>
+        <v>-0.0110509569861853</v>
       </c>
       <c r="DA12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DB12" t="n">
         <v>0</v>
       </c>
       <c r="DC12" t="n">
-        <v>0.06644460917142622</v>
+        <v>-0</v>
       </c>
       <c r="DD12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DE12" t="n">
         <v>0</v>
       </c>
       <c r="DF12" t="n">
-        <v>0</v>
+        <v>-0.07086346492058389</v>
       </c>
       <c r="DG12" t="n">
         <v>0</v>
       </c>
       <c r="DH12" t="n">
-        <v>-0.02494899940710461</v>
+        <v>0.04553391494949899</v>
       </c>
       <c r="DI12" t="n">
-        <v>-0.07500479679389119</v>
+        <v>0.1500646350241857</v>
       </c>
       <c r="DJ12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DK12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DL12" t="n">
-        <v>-0.01631849200212776</v>
+        <v>0</v>
       </c>
       <c r="DM12" t="n">
         <v>0</v>
       </c>
       <c r="DN12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO12" t="n">
-        <v>0</v>
+        <v>-0.1202893142180306</v>
       </c>
       <c r="DP12" t="n">
         <v>0</v>
       </c>
       <c r="DQ12" t="n">
-        <v>0.0628330168240146</v>
+        <v>0.08975071149809154</v>
       </c>
       <c r="DR12" t="n">
-        <v>-0.07304289128550553</v>
+        <v>-0.06393824808641117</v>
       </c>
       <c r="DS12" t="n">
         <v>0</v>
       </c>
       <c r="DT12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU12" t="n">
-        <v>0.0843455428744182</v>
+        <v>-0</v>
       </c>
       <c r="DV12" t="n">
         <v>0</v>
       </c>
       <c r="DW12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DX12" t="n">
-        <v>-0</v>
+        <v>-0.007555374597517854</v>
       </c>
       <c r="DY12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ12" t="n">
-        <v>0.03053154197006425</v>
+        <v>0.1053123380946859</v>
       </c>
       <c r="EA12" t="n">
-        <v>-0.09800852129329629</v>
+        <v>0.1190998202384782</v>
       </c>
       <c r="EB12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EC12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED12" t="n">
-        <v>0.009474591038596639</v>
+        <v>-0</v>
       </c>
       <c r="EE12" t="n">
         <v>-0</v>
       </c>
       <c r="EF12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG12" t="n">
-        <v>0</v>
+        <v>-0.02673844180981782</v>
       </c>
       <c r="EH12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EI12" t="n">
-        <v>-0.105206407803705</v>
+        <v>0.04988289096710433</v>
       </c>
       <c r="EJ12" t="n">
-        <v>-0.02357357469494952</v>
+        <v>0.07650924691654307</v>
       </c>
       <c r="EK12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EL12" t="n">
         <v>-0</v>
       </c>
       <c r="EM12" t="n">
-        <v>0.04813355218477856</v>
+        <v>-0</v>
       </c>
       <c r="EN12" t="n">
         <v>0</v>
@@ -7129,43 +7129,43 @@
         <v>0</v>
       </c>
       <c r="EP12" t="n">
-        <v>-0</v>
+        <v>-0.08522487509787674</v>
       </c>
       <c r="EQ12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ER12" t="n">
-        <v>-0.04544510204549205</v>
+        <v>0.108078510968077</v>
       </c>
       <c r="ES12" t="n">
-        <v>0.0909443913564143</v>
+        <v>0.04949720579236996</v>
       </c>
       <c r="ET12" t="n">
         <v>-0</v>
       </c>
       <c r="EU12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV12" t="n">
-        <v>-0.07029471170561646</v>
+        <v>0</v>
       </c>
       <c r="EW12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EX12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY12" t="n">
-        <v>-0</v>
+        <v>-0.09042025104341254</v>
       </c>
       <c r="EZ12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FA12" t="n">
-        <v>-0.04391872153422271</v>
+        <v>0.07421064441895547</v>
       </c>
       <c r="FB12" t="n">
-        <v>0.04171522648415357</v>
+        <v>-0.01831084133123074</v>
       </c>
       <c r="FC12" t="n">
         <v>-0</v>
@@ -7174,192 +7174,192 @@
         <v>-0</v>
       </c>
       <c r="FE12" t="n">
-        <v>0.07626683234922634</v>
+        <v>0</v>
       </c>
       <c r="FF12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG12" t="n">
         <v>-0</v>
       </c>
       <c r="FH12" t="n">
-        <v>0</v>
+        <v>-0.004637772800570485</v>
       </c>
       <c r="FI12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ12" t="n">
-        <v>-0.06520429733166035</v>
+        <v>0.07682842588800803</v>
       </c>
       <c r="FK12" t="n">
-        <v>-0.006487964273486198</v>
+        <v>0.06846285729181696</v>
       </c>
       <c r="FL12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FM12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN12" t="n">
-        <v>0.06853556720522158</v>
+        <v>0</v>
       </c>
       <c r="FO12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FQ12" t="n">
-        <v>-0</v>
+        <v>-0.04827752807670967</v>
       </c>
       <c r="FR12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS12" t="n">
-        <v>0.09547465461178213</v>
+        <v>0.001626282628145889</v>
       </c>
       <c r="FT12" t="n">
-        <v>0.08695210400874218</v>
+        <v>0.214637661880917</v>
       </c>
       <c r="FU12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FV12" t="n">
         <v>-0</v>
       </c>
       <c r="FW12" t="n">
-        <v>0.0502909255196435</v>
+        <v>0</v>
       </c>
       <c r="FX12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY12" t="n">
         <v>-0</v>
       </c>
       <c r="FZ12" t="n">
-        <v>-0</v>
+        <v>0.01258850058064878</v>
       </c>
       <c r="GA12" t="n">
         <v>-0</v>
       </c>
       <c r="GB12" t="n">
-        <v>0.01633192293289258</v>
+        <v>-0.01563793817265138</v>
       </c>
       <c r="GC12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF12" t="n">
-        <v>0.00218640520354662</v>
+        <v>0</v>
       </c>
       <c r="GG12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.07610967002208045</v>
+        <v>0.09298468702819418</v>
       </c>
       <c r="C13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1945329252875419</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0.05428699249271732</v>
+        <v>-0.01879208439687306</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>-0.1545442816975313</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.07422021390354755</v>
+        <v>0.06832804343554719</v>
       </c>
       <c r="L13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0.1486508475182257</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0.01013770501675093</v>
+        <v>-0.01697678724384011</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>-0.1463432763455178</v>
       </c>
       <c r="P13" t="n">
         <v>-0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="R13" t="n">
         <v>-0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="T13" t="n">
-        <v>-0.01405626512951252</v>
+        <v>-0.003353818085386224</v>
       </c>
       <c r="U13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>-0.03269203165537159</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>-0.06743872083148635</v>
+        <v>-0.02182799887105801</v>
       </c>
       <c r="X13" t="n">
-        <v>-0</v>
+        <v>-0.01359087149256468</v>
       </c>
       <c r="Y13" t="n">
         <v>-0</v>
       </c>
       <c r="Z13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB13" t="n">
         <v>-0</v>
       </c>
       <c r="AC13" t="n">
-        <v>-0.04138362177757802</v>
+        <v>0.03066847497262279</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.08654292069244482</v>
+        <v>-0</v>
       </c>
       <c r="AF13" t="n">
-        <v>-0.07064467063144739</v>
+        <v>0.05742204272863975</v>
       </c>
       <c r="AG13" t="n">
-        <v>-0</v>
+        <v>-0.007201586694408619</v>
       </c>
       <c r="AH13" t="n">
         <v>0</v>
@@ -7374,46 +7374,46 @@
         <v>0</v>
       </c>
       <c r="AL13" t="n">
-        <v>-0.02033606606225395</v>
+        <v>0.004429772396263922</v>
       </c>
       <c r="AM13" t="n">
         <v>-0</v>
       </c>
       <c r="AN13" t="n">
-        <v>0.01103522302601076</v>
+        <v>0</v>
       </c>
       <c r="AO13" t="n">
-        <v>-0.002086900709030487</v>
+        <v>-0.006719642098228876</v>
       </c>
       <c r="AP13" t="n">
-        <v>-0</v>
+        <v>-0.01111134975353944</v>
       </c>
       <c r="AQ13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR13" t="n">
         <v>-0</v>
       </c>
       <c r="AS13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU13" t="n">
-        <v>-0.0678181503405505</v>
+        <v>0.06988504623829697</v>
       </c>
       <c r="AV13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AW13" t="n">
-        <v>0.06993107801380152</v>
+        <v>0</v>
       </c>
       <c r="AX13" t="n">
-        <v>0.04190063858055226</v>
+        <v>-0.02539268194332784</v>
       </c>
       <c r="AY13" t="n">
-        <v>0</v>
+        <v>-0.06256842803693977</v>
       </c>
       <c r="AZ13" t="n">
         <v>0</v>
@@ -7428,76 +7428,76 @@
         <v>-0</v>
       </c>
       <c r="BD13" t="n">
-        <v>-0.02167644327127878</v>
+        <v>0.03817543014900541</v>
       </c>
       <c r="BE13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF13" t="n">
-        <v>0.1071802828958791</v>
+        <v>0</v>
       </c>
       <c r="BG13" t="n">
-        <v>-0.01497985022551109</v>
+        <v>-0.02944923315156045</v>
       </c>
       <c r="BH13" t="n">
-        <v>0</v>
+        <v>-0.06600505730720493</v>
       </c>
       <c r="BI13" t="n">
         <v>-0</v>
       </c>
       <c r="BJ13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BK13" t="n">
         <v>-0</v>
       </c>
       <c r="BL13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM13" t="n">
-        <v>0.03791242850974068</v>
+        <v>0.03556074083089543</v>
       </c>
       <c r="BN13" t="n">
         <v>0</v>
       </c>
       <c r="BO13" t="n">
-        <v>0.01184841082300174</v>
+        <v>0</v>
       </c>
       <c r="BP13" t="n">
-        <v>-0.01313295694003964</v>
+        <v>0.03020526686991719</v>
       </c>
       <c r="BQ13" t="n">
-        <v>0</v>
+        <v>5.987162675838798e-06</v>
       </c>
       <c r="BR13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS13" t="n">
         <v>0</v>
       </c>
       <c r="BT13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BU13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV13" t="n">
-        <v>-0.01296911595987922</v>
+        <v>0.01616488258381741</v>
       </c>
       <c r="BW13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX13" t="n">
-        <v>0.04663294743068529</v>
+        <v>0</v>
       </c>
       <c r="BY13" t="n">
-        <v>-0.032399539942638</v>
+        <v>-0.006941498792492215</v>
       </c>
       <c r="BZ13" t="n">
-        <v>-0</v>
+        <v>-0.03490749350466189</v>
       </c>
       <c r="CA13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CB13" t="n">
         <v>0</v>
@@ -7506,76 +7506,76 @@
         <v>0</v>
       </c>
       <c r="CD13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE13" t="n">
-        <v>0.03570959366358844</v>
+        <v>-0.01727021521045463</v>
       </c>
       <c r="CF13" t="n">
         <v>0</v>
       </c>
       <c r="CG13" t="n">
-        <v>-0.04849819775652848</v>
+        <v>-0</v>
       </c>
       <c r="CH13" t="n">
-        <v>-0.001689458892538173</v>
+        <v>0.002328720595975116</v>
       </c>
       <c r="CI13" t="n">
-        <v>-0</v>
+        <v>0.04027734003277695</v>
       </c>
       <c r="CJ13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK13" t="n">
         <v>0</v>
       </c>
       <c r="CL13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CM13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN13" t="n">
-        <v>0.04037887841224484</v>
+        <v>0.002081474583438858</v>
       </c>
       <c r="CO13" t="n">
         <v>0</v>
       </c>
       <c r="CP13" t="n">
-        <v>-0.01818051600358659</v>
+        <v>0</v>
       </c>
       <c r="CQ13" t="n">
-        <v>0.1280004631711779</v>
+        <v>0.03559222545003354</v>
       </c>
       <c r="CR13" t="n">
-        <v>0</v>
+        <v>-0.01560792705641794</v>
       </c>
       <c r="CS13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT13" t="n">
         <v>-0</v>
       </c>
       <c r="CU13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW13" t="n">
-        <v>0.02426359195257711</v>
+        <v>-0.007254371944179458</v>
       </c>
       <c r="CX13" t="n">
         <v>-0</v>
       </c>
       <c r="CY13" t="n">
-        <v>-0.04863280338216423</v>
+        <v>0</v>
       </c>
       <c r="CZ13" t="n">
-        <v>0.007250584283001831</v>
+        <v>-0.0001295470204526453</v>
       </c>
       <c r="DA13" t="n">
-        <v>0</v>
+        <v>0.02949784940910117</v>
       </c>
       <c r="DB13" t="n">
         <v>0</v>
@@ -7584,28 +7584,28 @@
         <v>-0</v>
       </c>
       <c r="DD13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DE13" t="n">
         <v>0</v>
       </c>
       <c r="DF13" t="n">
-        <v>0.02386600897024201</v>
+        <v>0.01117673740080532</v>
       </c>
       <c r="DG13" t="n">
         <v>-0</v>
       </c>
       <c r="DH13" t="n">
-        <v>0.001906620765931699</v>
+        <v>-0</v>
       </c>
       <c r="DI13" t="n">
-        <v>-0.05012466843700777</v>
+        <v>0.02528574018344156</v>
       </c>
       <c r="DJ13" t="n">
-        <v>0</v>
+        <v>0.0484975308667242</v>
       </c>
       <c r="DK13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DL13" t="n">
         <v>0</v>
@@ -7614,49 +7614,49 @@
         <v>0</v>
       </c>
       <c r="DN13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO13" t="n">
-        <v>0.001748256642047009</v>
+        <v>0.02040421186501677</v>
       </c>
       <c r="DP13" t="n">
         <v>0</v>
       </c>
       <c r="DQ13" t="n">
-        <v>0.01033849229477719</v>
+        <v>-0</v>
       </c>
       <c r="DR13" t="n">
-        <v>0.04209848266644774</v>
+        <v>0.04173588385216163</v>
       </c>
       <c r="DS13" t="n">
-        <v>0</v>
+        <v>0.04615828815356267</v>
       </c>
       <c r="DT13" t="n">
         <v>0</v>
       </c>
       <c r="DU13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DW13" t="n">
         <v>-0</v>
       </c>
       <c r="DX13" t="n">
-        <v>0.04816147120614826</v>
+        <v>-0.01121710062763031</v>
       </c>
       <c r="DY13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ13" t="n">
-        <v>0.04475786797409471</v>
+        <v>0</v>
       </c>
       <c r="EA13" t="n">
-        <v>0.01779967152620832</v>
+        <v>-0.001558830958664981</v>
       </c>
       <c r="EB13" t="n">
-        <v>-0</v>
+        <v>0.03835149906079329</v>
       </c>
       <c r="EC13" t="n">
         <v>-0</v>
@@ -7665,28 +7665,28 @@
         <v>-0</v>
       </c>
       <c r="EE13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EG13" t="n">
-        <v>0.03042612724200026</v>
+        <v>-0.02269673278677555</v>
       </c>
       <c r="EH13" t="n">
         <v>0</v>
       </c>
       <c r="EI13" t="n">
-        <v>-0.07245536902391735</v>
+        <v>0</v>
       </c>
       <c r="EJ13" t="n">
-        <v>-0.04053506387060881</v>
+        <v>5.427045335655309e-05</v>
       </c>
       <c r="EK13" t="n">
-        <v>-0</v>
+        <v>-0.005742468238144342</v>
       </c>
       <c r="EL13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM13" t="n">
         <v>0</v>
@@ -7698,73 +7698,73 @@
         <v>0</v>
       </c>
       <c r="EP13" t="n">
-        <v>0.01660639959031823</v>
+        <v>-0.01596346473514745</v>
       </c>
       <c r="EQ13" t="n">
         <v>0</v>
       </c>
       <c r="ER13" t="n">
-        <v>0.0141739870904821</v>
+        <v>0</v>
       </c>
       <c r="ES13" t="n">
-        <v>0.01747214875356858</v>
+        <v>-0.03201502811501143</v>
       </c>
       <c r="ET13" t="n">
-        <v>-0</v>
+        <v>0.04633903457079024</v>
       </c>
       <c r="EU13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV13" t="n">
         <v>0</v>
       </c>
       <c r="EW13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY13" t="n">
-        <v>0.02928126152589877</v>
+        <v>-0.01060471250556199</v>
       </c>
       <c r="EZ13" t="n">
         <v>0</v>
       </c>
       <c r="FA13" t="n">
-        <v>-0.04268247875163073</v>
+        <v>0</v>
       </c>
       <c r="FB13" t="n">
-        <v>0.009472934589986265</v>
+        <v>0.008014033653113498</v>
       </c>
       <c r="FC13" t="n">
-        <v>-0</v>
+        <v>0.03167015458402955</v>
       </c>
       <c r="FD13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE13" t="n">
         <v>0</v>
       </c>
       <c r="FF13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FH13" t="n">
-        <v>0.006213387236832712</v>
+        <v>-0.02473995106014412</v>
       </c>
       <c r="FI13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ13" t="n">
-        <v>-0.06418222261759662</v>
+        <v>-0</v>
       </c>
       <c r="FK13" t="n">
-        <v>0.01563447792240323</v>
+        <v>-0.006230463775177821</v>
       </c>
       <c r="FL13" t="n">
-        <v>0</v>
+        <v>0.03597341387602793</v>
       </c>
       <c r="FM13" t="n">
         <v>-0</v>
@@ -7776,22 +7776,22 @@
         <v>0</v>
       </c>
       <c r="FP13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ13" t="n">
-        <v>0.0194657994675477</v>
+        <v>0.001183397076480343</v>
       </c>
       <c r="FR13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS13" t="n">
-        <v>0.003462586127709901</v>
+        <v>0</v>
       </c>
       <c r="FT13" t="n">
-        <v>0.04161860300048534</v>
+        <v>0.04754886046772473</v>
       </c>
       <c r="FU13" t="n">
-        <v>0</v>
+        <v>-0.01225560912326404</v>
       </c>
       <c r="FV13" t="n">
         <v>-0</v>
@@ -7806,81 +7806,81 @@
         <v>-0</v>
       </c>
       <c r="FZ13" t="n">
-        <v>0.02675951457090719</v>
+        <v>-0.01353666350497405</v>
       </c>
       <c r="GA13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GB13" t="n">
-        <v>0.02941077228016346</v>
+        <v>0</v>
       </c>
       <c r="GC13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD13" t="n">
-        <v>0</v>
+        <v>0.01547506714617387</v>
       </c>
       <c r="GE13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B14" t="n">
-        <v>-0</v>
+        <v>0.6492804134409371</v>
       </c>
       <c r="C14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0.2090736175203569</v>
+        <v>-0.2939539389067907</v>
       </c>
       <c r="E14" t="n">
-        <v>0.03207709963779916</v>
+        <v>-0.1194822813050385</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.1216528932855981</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>0.3607322487589307</v>
       </c>
       <c r="L14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0.152743840466181</v>
+        <v>-0.274510158929581</v>
       </c>
       <c r="N14" t="n">
-        <v>-0.01271383152528795</v>
+        <v>-0.1203377065249719</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q14" t="n">
-        <v>-0.139929850322157</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -7889,43 +7889,43 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>0.1366747692212969</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="V14" t="n">
-        <v>-0.0146414929013764</v>
+        <v>-0.03411192252074274</v>
       </c>
       <c r="W14" t="n">
-        <v>-0.05372473005168273</v>
+        <v>0.02170505397300855</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z14" t="n">
-        <v>-0.03419679970085101</v>
+        <v>0</v>
       </c>
       <c r="AA14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB14" t="n">
         <v>-0</v>
       </c>
       <c r="AC14" t="n">
-        <v>-0</v>
+        <v>0.09637772786254606</v>
       </c>
       <c r="AD14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.07303417261176076</v>
+        <v>0.02888785567118826</v>
       </c>
       <c r="AF14" t="n">
-        <v>-0.02210866270862482</v>
+        <v>0.01158375459083028</v>
       </c>
       <c r="AG14" t="n">
         <v>-0</v>
@@ -7934,34 +7934,34 @@
         <v>-0</v>
       </c>
       <c r="AI14" t="n">
-        <v>0.01862141938897927</v>
+        <v>0</v>
       </c>
       <c r="AJ14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AK14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL14" t="n">
-        <v>-0</v>
+        <v>0.0003224971806198537</v>
       </c>
       <c r="AM14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN14" t="n">
-        <v>0.06010607118458305</v>
+        <v>-0.06788683610543443</v>
       </c>
       <c r="AO14" t="n">
-        <v>0.01277253209916121</v>
+        <v>-0.07370361835943866</v>
       </c>
       <c r="AP14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AQ14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AR14" t="n">
-        <v>-0.01660451208090522</v>
+        <v>-0</v>
       </c>
       <c r="AS14" t="n">
         <v>0</v>
@@ -7970,79 +7970,79 @@
         <v>-0</v>
       </c>
       <c r="AU14" t="n">
-        <v>-0</v>
+        <v>0.5044902472627715</v>
       </c>
       <c r="AV14" t="n">
         <v>-0</v>
       </c>
       <c r="AW14" t="n">
-        <v>0.1064805930636941</v>
+        <v>0.01222238186413285</v>
       </c>
       <c r="AX14" t="n">
-        <v>0.01899747328653838</v>
+        <v>0.07422777139213108</v>
       </c>
       <c r="AY14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AZ14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BA14" t="n">
-        <v>-0.1558954831511964</v>
+        <v>-0</v>
       </c>
       <c r="BB14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC14" t="n">
         <v>0</v>
       </c>
       <c r="BD14" t="n">
-        <v>0</v>
+        <v>0.05301455778367063</v>
       </c>
       <c r="BE14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF14" t="n">
-        <v>0.07727454565446069</v>
+        <v>-0.1660515658829282</v>
       </c>
       <c r="BG14" t="n">
-        <v>-0.02845980111858049</v>
+        <v>-0.250461407275876</v>
       </c>
       <c r="BH14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BJ14" t="n">
-        <v>-0.0004165231416972446</v>
+        <v>0</v>
       </c>
       <c r="BK14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BL14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM14" t="n">
-        <v>-0</v>
+        <v>0.1518561376812254</v>
       </c>
       <c r="BN14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BO14" t="n">
-        <v>0.01211666464873286</v>
+        <v>0.04650287090341249</v>
       </c>
       <c r="BP14" t="n">
-        <v>-0.02982077661332714</v>
+        <v>0.1943985006053761</v>
       </c>
       <c r="BQ14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BR14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BS14" t="n">
-        <v>0.07153354524524345</v>
+        <v>-0</v>
       </c>
       <c r="BT14" t="n">
         <v>-0</v>
@@ -8051,214 +8051,214 @@
         <v>-0</v>
       </c>
       <c r="BV14" t="n">
-        <v>-0</v>
+        <v>0.2510806988214314</v>
       </c>
       <c r="BW14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX14" t="n">
-        <v>0.1028406350793755</v>
+        <v>-0.0008267654313361131</v>
       </c>
       <c r="BY14" t="n">
-        <v>-0.01366528827526018</v>
+        <v>0.02036197076580663</v>
       </c>
       <c r="BZ14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CA14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CB14" t="n">
-        <v>-0.05886079558956765</v>
+        <v>-0</v>
       </c>
       <c r="CC14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD14" t="n">
         <v>0</v>
       </c>
       <c r="CE14" t="n">
-        <v>-0</v>
+        <v>-0.1354341166043768</v>
       </c>
       <c r="CF14" t="n">
         <v>0</v>
       </c>
       <c r="CG14" t="n">
-        <v>-0.05893657476858296</v>
+        <v>0.02945295624560027</v>
       </c>
       <c r="CH14" t="n">
-        <v>0.01483667101616566</v>
+        <v>-0.02328345700774151</v>
       </c>
       <c r="CI14" t="n">
         <v>-0</v>
       </c>
       <c r="CJ14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK14" t="n">
-        <v>0.03263207372326687</v>
+        <v>0</v>
       </c>
       <c r="CL14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN14" t="n">
-        <v>0</v>
+        <v>0.02001453470031643</v>
       </c>
       <c r="CO14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CP14" t="n">
-        <v>-0.05447350387279783</v>
+        <v>-0.1424714907307637</v>
       </c>
       <c r="CQ14" t="n">
-        <v>0.1214327673925903</v>
+        <v>-0.1298067485414907</v>
       </c>
       <c r="CR14" t="n">
         <v>0</v>
       </c>
       <c r="CS14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT14" t="n">
-        <v>0.03805330294758456</v>
+        <v>-0</v>
       </c>
       <c r="CU14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV14" t="n">
         <v>-0</v>
       </c>
       <c r="CW14" t="n">
-        <v>0</v>
+        <v>-0.1162799779007171</v>
       </c>
       <c r="CX14" t="n">
         <v>-0</v>
       </c>
       <c r="CY14" t="n">
-        <v>-0.04846180404578093</v>
+        <v>0.05759433995372666</v>
       </c>
       <c r="CZ14" t="n">
-        <v>0.01087772696681401</v>
+        <v>-0.01811902454858159</v>
       </c>
       <c r="DA14" t="n">
         <v>0</v>
       </c>
       <c r="DB14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC14" t="n">
-        <v>0.02106685353988386</v>
+        <v>-0</v>
       </c>
       <c r="DD14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DE14" t="n">
         <v>0</v>
       </c>
       <c r="DF14" t="n">
-        <v>0</v>
+        <v>0.007505724781323288</v>
       </c>
       <c r="DG14" t="n">
         <v>0</v>
       </c>
       <c r="DH14" t="n">
-        <v>0.001110454064050247</v>
+        <v>0.03886361853869076</v>
       </c>
       <c r="DI14" t="n">
-        <v>-0.04794232969095568</v>
+        <v>0.02613593618304703</v>
       </c>
       <c r="DJ14" t="n">
         <v>-0</v>
       </c>
       <c r="DK14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DL14" t="n">
-        <v>-0.02859561691892615</v>
+        <v>-0</v>
       </c>
       <c r="DM14" t="n">
         <v>0</v>
       </c>
       <c r="DN14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO14" t="n">
-        <v>0</v>
+        <v>-0.04910530825975112</v>
       </c>
       <c r="DP14" t="n">
         <v>0</v>
       </c>
       <c r="DQ14" t="n">
-        <v>0.01220478438012157</v>
+        <v>0.05272542388511819</v>
       </c>
       <c r="DR14" t="n">
-        <v>0.007875528761437113</v>
+        <v>-0.03873283964313835</v>
       </c>
       <c r="DS14" t="n">
         <v>0</v>
       </c>
       <c r="DT14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU14" t="n">
-        <v>0.06772812069533456</v>
+        <v>0</v>
       </c>
       <c r="DV14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DW14" t="n">
         <v>0</v>
       </c>
       <c r="DX14" t="n">
-        <v>-0</v>
+        <v>0.058641452725701</v>
       </c>
       <c r="DY14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ14" t="n">
-        <v>0.01824668081527175</v>
+        <v>-0.004336596752264548</v>
       </c>
       <c r="EA14" t="n">
-        <v>-0.005027788639596537</v>
+        <v>-0.03386978949650675</v>
       </c>
       <c r="EB14" t="n">
         <v>-0</v>
       </c>
       <c r="EC14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED14" t="n">
-        <v>0.02177999244907766</v>
+        <v>-0</v>
       </c>
       <c r="EE14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG14" t="n">
-        <v>-0</v>
+        <v>-0.1107839462261372</v>
       </c>
       <c r="EH14" t="n">
         <v>0</v>
       </c>
       <c r="EI14" t="n">
-        <v>-0.1205851349695454</v>
+        <v>0.06467284079671132</v>
       </c>
       <c r="EJ14" t="n">
-        <v>-0.04517571128460983</v>
+        <v>0.06894363772468542</v>
       </c>
       <c r="EK14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EL14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM14" t="n">
-        <v>0.0535222210099174</v>
+        <v>-0</v>
       </c>
       <c r="EN14" t="n">
         <v>-0</v>
@@ -8267,43 +8267,43 @@
         <v>0</v>
       </c>
       <c r="EP14" t="n">
-        <v>-0</v>
+        <v>-0.09569921471144348</v>
       </c>
       <c r="EQ14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER14" t="n">
-        <v>-0.02248306707929555</v>
+        <v>0.03345247744443874</v>
       </c>
       <c r="ES14" t="n">
-        <v>-0.03305338714013072</v>
+        <v>0.02206196309949393</v>
       </c>
       <c r="ET14" t="n">
         <v>-0</v>
       </c>
       <c r="EU14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV14" t="n">
-        <v>0.008013302524918223</v>
+        <v>0</v>
       </c>
       <c r="EW14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX14" t="n">
         <v>0</v>
       </c>
       <c r="EY14" t="n">
-        <v>-0</v>
+        <v>-0.1215605260266948</v>
       </c>
       <c r="EZ14" t="n">
         <v>0</v>
       </c>
       <c r="FA14" t="n">
-        <v>-0.05013642988541758</v>
+        <v>0.037234917119999</v>
       </c>
       <c r="FB14" t="n">
-        <v>0.01676986195052592</v>
+        <v>0.007469289341474064</v>
       </c>
       <c r="FC14" t="n">
         <v>-0</v>
@@ -8312,61 +8312,61 @@
         <v>-0</v>
       </c>
       <c r="FE14" t="n">
-        <v>0.03722612506996602</v>
+        <v>0</v>
       </c>
       <c r="FF14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG14" t="n">
         <v>0</v>
       </c>
       <c r="FH14" t="n">
-        <v>-0</v>
+        <v>-0.01755243855232293</v>
       </c>
       <c r="FI14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ14" t="n">
-        <v>-0.02439415243712498</v>
+        <v>0.07790089717722412</v>
       </c>
       <c r="FK14" t="n">
-        <v>0.08590599568891867</v>
+        <v>-0.05066833297266086</v>
       </c>
       <c r="FL14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FM14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN14" t="n">
-        <v>0.04087585352396194</v>
+        <v>0</v>
       </c>
       <c r="FO14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP14" t="n">
         <v>0</v>
       </c>
       <c r="FQ14" t="n">
-        <v>0</v>
+        <v>-0.009092560515720832</v>
       </c>
       <c r="FR14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS14" t="n">
-        <v>-0.009396248330235819</v>
+        <v>-0.02991402421600145</v>
       </c>
       <c r="FT14" t="n">
-        <v>0.02436300348040359</v>
+        <v>-0.02042347156147456</v>
       </c>
       <c r="FU14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FV14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FW14" t="n">
-        <v>0.04092975195961356</v>
+        <v>-0</v>
       </c>
       <c r="FX14" t="n">
         <v>0</v>
@@ -8375,25 +8375,25 @@
         <v>-0</v>
       </c>
       <c r="FZ14" t="n">
-        <v>-0</v>
+        <v>0.04360069368377027</v>
       </c>
       <c r="GA14" t="n">
         <v>-0</v>
       </c>
       <c r="GB14" t="n">
-        <v>-0.01432877120410622</v>
+        <v>-0.07589982180819892</v>
       </c>
       <c r="GC14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GD14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF14" t="n">
-        <v>0.03465348488347346</v>
+        <v>0</v>
       </c>
       <c r="GG14" t="n">
         <v>-0</v>
@@ -8401,157 +8401,157 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="B15" t="n">
-        <v>-0</v>
+        <v>-0.5896764627142477</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.1228265327543142</v>
+        <v>0.21239278567377</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.04334600037722938</v>
+        <v>0.1484346689108451</v>
       </c>
       <c r="F15" t="n">
         <v>-0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H15" t="n">
         <v>-0</v>
       </c>
       <c r="I15" t="n">
-        <v>0.2254666588223392</v>
+        <v>-0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K15" t="n">
-        <v>-0</v>
+        <v>-0.3985759898340645</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M15" t="n">
-        <v>-0.05622977364945834</v>
+        <v>0.2364911851897736</v>
       </c>
       <c r="N15" t="n">
-        <v>-0.03499148782977613</v>
+        <v>0.05593971247813229</v>
       </c>
       <c r="O15" t="n">
         <v>-0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q15" t="n">
         <v>-0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1922941504917723</v>
+        <v>-0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="T15" t="n">
-        <v>-0</v>
+        <v>-0.1540955283323805</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>-0.03615852557928464</v>
+        <v>0.03809669391814002</v>
       </c>
       <c r="W15" t="n">
-        <v>0.1343712563943057</v>
+        <v>-0.03100994926579306</v>
       </c>
       <c r="X15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
       </c>
       <c r="Z15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.04603115763803509</v>
+        <v>-0</v>
       </c>
       <c r="AB15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AC15" t="n">
-        <v>-0</v>
+        <v>-0.2125351982801041</v>
       </c>
       <c r="AD15" t="n">
         <v>-0</v>
       </c>
       <c r="AE15" t="n">
-        <v>-0.02464836048525935</v>
+        <v>0.04817788364033308</v>
       </c>
       <c r="AF15" t="n">
-        <v>-0.03951896614682378</v>
+        <v>0.03298026066431381</v>
       </c>
       <c r="AG15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AH15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AI15" t="n">
         <v>0</v>
       </c>
       <c r="AJ15" t="n">
-        <v>-0.09067082495516729</v>
+        <v>-0</v>
       </c>
       <c r="AK15" t="n">
         <v>-0</v>
       </c>
       <c r="AL15" t="n">
-        <v>-0</v>
+        <v>-0.04772654417006592</v>
       </c>
       <c r="AM15" t="n">
         <v>-0</v>
       </c>
       <c r="AN15" t="n">
-        <v>-0.0238749520895728</v>
+        <v>0.03293472786190688</v>
       </c>
       <c r="AO15" t="n">
-        <v>-0.01615097713395091</v>
+        <v>0.02252031580890516</v>
       </c>
       <c r="AP15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AQ15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AR15" t="n">
         <v>-0</v>
       </c>
       <c r="AS15" t="n">
-        <v>0.0172990863978881</v>
+        <v>-0</v>
       </c>
       <c r="AT15" t="n">
         <v>0</v>
       </c>
       <c r="AU15" t="n">
-        <v>-0</v>
+        <v>-0.3565697030887287</v>
       </c>
       <c r="AV15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AW15" t="n">
-        <v>-0.09096414134582093</v>
+        <v>-0.07026950313427655</v>
       </c>
       <c r="AX15" t="n">
-        <v>-0.02348468588772895</v>
+        <v>0.02268177262048425</v>
       </c>
       <c r="AY15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AZ15" t="n">
         <v>0</v>
@@ -8560,76 +8560,76 @@
         <v>-0</v>
       </c>
       <c r="BB15" t="n">
-        <v>0.1239064592087672</v>
+        <v>-0</v>
       </c>
       <c r="BC15" t="n">
         <v>-0</v>
       </c>
       <c r="BD15" t="n">
-        <v>-0</v>
+        <v>-0.09824729160195705</v>
       </c>
       <c r="BE15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BF15" t="n">
-        <v>0.008965162166594046</v>
+        <v>0.1023780021489141</v>
       </c>
       <c r="BG15" t="n">
-        <v>-0.03717451541598565</v>
+        <v>0.3603028026955927</v>
       </c>
       <c r="BH15" t="n">
         <v>-0</v>
       </c>
       <c r="BI15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BK15" t="n">
-        <v>0.02369859053701962</v>
+        <v>-0</v>
       </c>
       <c r="BL15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BM15" t="n">
-        <v>-0</v>
+        <v>0.02993070382560619</v>
       </c>
       <c r="BN15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BO15" t="n">
-        <v>-0.02293115072968471</v>
+        <v>-0.05454303940520999</v>
       </c>
       <c r="BP15" t="n">
-        <v>0.01871087028656643</v>
+        <v>0.1074964868799419</v>
       </c>
       <c r="BQ15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BR15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BS15" t="n">
         <v>0</v>
       </c>
       <c r="BT15" t="n">
-        <v>-0.05837600938441288</v>
+        <v>-0</v>
       </c>
       <c r="BU15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BV15" t="n">
-        <v>-0</v>
+        <v>-0.2517594386222198</v>
       </c>
       <c r="BW15" t="n">
         <v>-0</v>
       </c>
       <c r="BX15" t="n">
-        <v>-0.09218068887057655</v>
+        <v>0.07901865440286622</v>
       </c>
       <c r="BY15" t="n">
-        <v>0.005428764451633195</v>
+        <v>-0.04782045824149748</v>
       </c>
       <c r="BZ15" t="n">
         <v>-0</v>
@@ -8638,106 +8638,106 @@
         <v>0</v>
       </c>
       <c r="CB15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CC15" t="n">
-        <v>0.1487101268316889</v>
+        <v>-0</v>
       </c>
       <c r="CD15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CE15" t="n">
-        <v>0</v>
+        <v>0.1286009446599765</v>
       </c>
       <c r="CF15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CG15" t="n">
-        <v>0.03119061045801202</v>
+        <v>-0.03814880317354567</v>
       </c>
       <c r="CH15" t="n">
-        <v>-0.0001632244550422448</v>
+        <v>0.06994906973348211</v>
       </c>
       <c r="CI15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CJ15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CK15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CL15" t="n">
-        <v>-0.026877595735562</v>
+        <v>-0</v>
       </c>
       <c r="CM15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CN15" t="n">
-        <v>0</v>
+        <v>-0.05285869436722412</v>
       </c>
       <c r="CO15" t="n">
         <v>0</v>
       </c>
       <c r="CP15" t="n">
-        <v>0.03638683840016874</v>
+        <v>0.01364225622787154</v>
       </c>
       <c r="CQ15" t="n">
-        <v>-0.06441675859754055</v>
+        <v>0.004438196870012514</v>
       </c>
       <c r="CR15" t="n">
         <v>-0</v>
       </c>
       <c r="CS15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CT15" t="n">
         <v>0</v>
       </c>
       <c r="CU15" t="n">
-        <v>0.05018501220494428</v>
+        <v>0</v>
       </c>
       <c r="CV15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CW15" t="n">
-        <v>-0</v>
+        <v>0.1346423848792344</v>
       </c>
       <c r="CX15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CY15" t="n">
-        <v>0.03867271904717415</v>
+        <v>-0.05371612474340474</v>
       </c>
       <c r="CZ15" t="n">
-        <v>-0.01449018716261832</v>
+        <v>0.04573323829693061</v>
       </c>
       <c r="DA15" t="n">
         <v>-0</v>
       </c>
       <c r="DB15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DC15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DD15" t="n">
-        <v>-0.03782788796207129</v>
+        <v>0</v>
       </c>
       <c r="DE15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF15" t="n">
-        <v>0</v>
+        <v>0.1345189027431355</v>
       </c>
       <c r="DG15" t="n">
         <v>-0</v>
       </c>
       <c r="DH15" t="n">
-        <v>0.02053029292668512</v>
+        <v>-0.03966070664493476</v>
       </c>
       <c r="DI15" t="n">
-        <v>-0.001047898738599624</v>
+        <v>-0.001365447817742847</v>
       </c>
       <c r="DJ15" t="n">
         <v>-0</v>
@@ -8749,79 +8749,79 @@
         <v>-0</v>
       </c>
       <c r="DM15" t="n">
-        <v>0.007346337066653366</v>
+        <v>0</v>
       </c>
       <c r="DN15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DO15" t="n">
-        <v>0</v>
+        <v>0.1222972732601069</v>
       </c>
       <c r="DP15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DQ15" t="n">
-        <v>-0.005448028687469997</v>
+        <v>-0.09248871363283874</v>
       </c>
       <c r="DR15" t="n">
-        <v>-0.0301599413922427</v>
+        <v>0.1548823454895941</v>
       </c>
       <c r="DS15" t="n">
         <v>-0</v>
       </c>
       <c r="DT15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DU15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DV15" t="n">
-        <v>0.05289709680760326</v>
+        <v>-0</v>
       </c>
       <c r="DW15" t="n">
         <v>-0</v>
       </c>
       <c r="DX15" t="n">
-        <v>-0</v>
+        <v>-0.05753362560860207</v>
       </c>
       <c r="DY15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DZ15" t="n">
-        <v>-0.02012832856495834</v>
+        <v>0.159390722877827</v>
       </c>
       <c r="EA15" t="n">
-        <v>-0.01970641284117492</v>
+        <v>-0.1020567468652071</v>
       </c>
       <c r="EB15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EC15" t="n">
         <v>0</v>
       </c>
       <c r="ED15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EE15" t="n">
-        <v>0.03548341323902942</v>
+        <v>0</v>
       </c>
       <c r="EF15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG15" t="n">
-        <v>0</v>
+        <v>0.07941539048025455</v>
       </c>
       <c r="EH15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EI15" t="n">
-        <v>0.04242494740296306</v>
+        <v>-0.01584175747624807</v>
       </c>
       <c r="EJ15" t="n">
-        <v>0.05197047072682085</v>
+        <v>-0.06701938647723836</v>
       </c>
       <c r="EK15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EL15" t="n">
         <v>-0</v>
@@ -8830,133 +8830,133 @@
         <v>0</v>
       </c>
       <c r="EN15" t="n">
-        <v>-0.0402502834417776</v>
+        <v>-0</v>
       </c>
       <c r="EO15" t="n">
         <v>-0</v>
       </c>
       <c r="EP15" t="n">
-        <v>0</v>
+        <v>0.08632628363592267</v>
       </c>
       <c r="EQ15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER15" t="n">
-        <v>0.04247060176606245</v>
+        <v>0.06966300367772769</v>
       </c>
       <c r="ES15" t="n">
-        <v>-0.04010854144975629</v>
+        <v>-0.07286728672392757</v>
       </c>
       <c r="ET15" t="n">
         <v>0</v>
       </c>
       <c r="EU15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EV15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW15" t="n">
-        <v>-0.04916959302133235</v>
+        <v>0</v>
       </c>
       <c r="EX15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EY15" t="n">
-        <v>0</v>
+        <v>0.1557819158262629</v>
       </c>
       <c r="EZ15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FA15" t="n">
-        <v>0.02819883804360648</v>
+        <v>-0.06871987018935861</v>
       </c>
       <c r="FB15" t="n">
-        <v>-0.00450318664052816</v>
+        <v>0.03944022084450991</v>
       </c>
       <c r="FC15" t="n">
         <v>-0</v>
       </c>
       <c r="FD15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FE15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FF15" t="n">
-        <v>-0.04783398105051315</v>
+        <v>-0</v>
       </c>
       <c r="FG15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FH15" t="n">
-        <v>0</v>
+        <v>0.03953988308689829</v>
       </c>
       <c r="FI15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ15" t="n">
-        <v>0.01203280449835313</v>
+        <v>-0.04664328430191348</v>
       </c>
       <c r="FK15" t="n">
-        <v>-0.0221106771528775</v>
+        <v>0.0227920536776248</v>
       </c>
       <c r="FL15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FM15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FN15" t="n">
         <v>-0</v>
       </c>
       <c r="FO15" t="n">
-        <v>-0.02899126716102229</v>
+        <v>-0</v>
       </c>
       <c r="FP15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ15" t="n">
-        <v>-0</v>
+        <v>0.01924673752464403</v>
       </c>
       <c r="FR15" t="n">
         <v>0</v>
       </c>
       <c r="FS15" t="n">
-        <v>-0.001576651788801946</v>
+        <v>0.1311944202911667</v>
       </c>
       <c r="FT15" t="n">
-        <v>0.001731166154376374</v>
+        <v>-0.03584026808854712</v>
       </c>
       <c r="FU15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FV15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FW15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX15" t="n">
-        <v>-0.03041458491214491</v>
+        <v>-0</v>
       </c>
       <c r="FY15" t="n">
         <v>0</v>
       </c>
       <c r="FZ15" t="n">
-        <v>0</v>
+        <v>0.0775443854031079</v>
       </c>
       <c r="GA15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GB15" t="n">
-        <v>0.03731319703887613</v>
+        <v>0.1077614105399141</v>
       </c>
       <c r="GC15" t="n">
         <v>-0</v>
       </c>
       <c r="GD15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GE15" t="n">
         <v>0</v>
@@ -8965,7 +8965,7 @@
         <v>-0</v>
       </c>
       <c r="GG15" t="n">
-        <v>0.01930437073735706</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -8976,184 +8976,184 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>0.3345422045462771</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>-0.1040163273759496</v>
       </c>
       <c r="E16" t="n">
-        <v>0.2082435317359511</v>
+        <v>-0.05689265839859305</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.211650760976217</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.3265428453289975</v>
+        <v>-0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>0.2614667340631677</v>
       </c>
       <c r="M16" t="n">
-        <v>-0</v>
+        <v>-0.1237982883111269</v>
       </c>
       <c r="N16" t="n">
-        <v>0.2839654521669653</v>
+        <v>-0.1247101020966574</v>
       </c>
       <c r="O16" t="n">
-        <v>-0.1854174634396233</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.401557998512695</v>
+        <v>-0</v>
       </c>
       <c r="R16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>-0</v>
+        <v>0.09688481565730274</v>
       </c>
       <c r="V16" t="n">
-        <v>-0</v>
+        <v>-0.02582500224957221</v>
       </c>
       <c r="W16" t="n">
-        <v>0.09637023281604587</v>
+        <v>0.03479458580762092</v>
       </c>
       <c r="X16" t="n">
-        <v>-0.03850495607117745</v>
+        <v>-0</v>
       </c>
       <c r="Y16" t="n">
         <v>-0</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.201173326028738</v>
+        <v>-0</v>
       </c>
       <c r="AA16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AB16" t="n">
         <v>-0</v>
       </c>
       <c r="AC16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD16" t="n">
-        <v>0</v>
+        <v>0.06004206032099968</v>
       </c>
       <c r="AE16" t="n">
-        <v>0</v>
+        <v>0.03800396211726926</v>
       </c>
       <c r="AF16" t="n">
-        <v>0.1224112006537266</v>
+        <v>0.03052996765202319</v>
       </c>
       <c r="AG16" t="n">
-        <v>-0.0335915942033443</v>
+        <v>0</v>
       </c>
       <c r="AH16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AI16" t="n">
-        <v>-0.06218699548827417</v>
+        <v>-0</v>
       </c>
       <c r="AJ16" t="n">
         <v>0</v>
       </c>
       <c r="AK16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AL16" t="n">
         <v>0</v>
       </c>
       <c r="AM16" t="n">
-        <v>-0</v>
+        <v>-0.01928273281468286</v>
       </c>
       <c r="AN16" t="n">
-        <v>-0</v>
+        <v>-0.03078338412302969</v>
       </c>
       <c r="AO16" t="n">
-        <v>-0.1342992159965544</v>
+        <v>-0.06248062317465185</v>
       </c>
       <c r="AP16" t="n">
-        <v>0.02547066812705285</v>
+        <v>0</v>
       </c>
       <c r="AQ16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AR16" t="n">
-        <v>-0.03011665616452423</v>
+        <v>0</v>
       </c>
       <c r="AS16" t="n">
         <v>-0</v>
       </c>
       <c r="AT16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV16" t="n">
-        <v>-0</v>
+        <v>0.1529712139775669</v>
       </c>
       <c r="AW16" t="n">
-        <v>0</v>
+        <v>-0.01858769403671884</v>
       </c>
       <c r="AX16" t="n">
-        <v>0.08848255432438654</v>
+        <v>0.1708608151468087</v>
       </c>
       <c r="AY16" t="n">
-        <v>-0.1729937635337735</v>
+        <v>-0</v>
       </c>
       <c r="AZ16" t="n">
         <v>-0</v>
       </c>
       <c r="BA16" t="n">
-        <v>0.1422418620807325</v>
+        <v>-0</v>
       </c>
       <c r="BB16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BD16" t="n">
         <v>0</v>
       </c>
       <c r="BE16" t="n">
-        <v>0</v>
+        <v>0.0923004019583504</v>
       </c>
       <c r="BF16" t="n">
-        <v>0</v>
+        <v>-0.03984387068528213</v>
       </c>
       <c r="BG16" t="n">
-        <v>0.1454116757380173</v>
+        <v>-0.08900320377887121</v>
       </c>
       <c r="BH16" t="n">
-        <v>-0.01128915818288295</v>
+        <v>0</v>
       </c>
       <c r="BI16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ16" t="n">
-        <v>0.1147527994446131</v>
+        <v>0</v>
       </c>
       <c r="BK16" t="n">
         <v>0</v>
@@ -9165,22 +9165,22 @@
         <v>-0</v>
       </c>
       <c r="BN16" t="n">
-        <v>-0</v>
+        <v>0.03816941572154151</v>
       </c>
       <c r="BO16" t="n">
-        <v>-0</v>
+        <v>0.05536851891374819</v>
       </c>
       <c r="BP16" t="n">
-        <v>0.008995379568645273</v>
+        <v>0.1198218264601084</v>
       </c>
       <c r="BQ16" t="n">
-        <v>0.03765895853567978</v>
+        <v>-0</v>
       </c>
       <c r="BR16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS16" t="n">
-        <v>-0.03982513752889273</v>
+        <v>0</v>
       </c>
       <c r="BT16" t="n">
         <v>-0</v>
@@ -9192,49 +9192,49 @@
         <v>-0</v>
       </c>
       <c r="BW16" t="n">
-        <v>0</v>
+        <v>0.05954179341908349</v>
       </c>
       <c r="BX16" t="n">
-        <v>-0</v>
+        <v>-0.02141594148381698</v>
       </c>
       <c r="BY16" t="n">
-        <v>-0.06080037522128322</v>
+        <v>0.1117756655233817</v>
       </c>
       <c r="BZ16" t="n">
-        <v>-0.07513463691241384</v>
+        <v>0</v>
       </c>
       <c r="CA16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CB16" t="n">
-        <v>0.1344486939692701</v>
+        <v>-0</v>
       </c>
       <c r="CC16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD16" t="n">
         <v>-0</v>
       </c>
       <c r="CE16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CF16" t="n">
-        <v>-0</v>
+        <v>-0.06959294209998884</v>
       </c>
       <c r="CG16" t="n">
-        <v>-0</v>
+        <v>0.02686093877623242</v>
       </c>
       <c r="CH16" t="n">
-        <v>-0.06592449594456329</v>
+        <v>0.0004054989506993912</v>
       </c>
       <c r="CI16" t="n">
-        <v>0.04898763148265858</v>
+        <v>0</v>
       </c>
       <c r="CJ16" t="n">
         <v>-0</v>
       </c>
       <c r="CK16" t="n">
-        <v>-0.06694665822601377</v>
+        <v>0</v>
       </c>
       <c r="CL16" t="n">
         <v>-0</v>
@@ -9243,109 +9243,109 @@
         <v>0</v>
       </c>
       <c r="CN16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CO16" t="n">
-        <v>-0</v>
+        <v>0.01418004503149746</v>
       </c>
       <c r="CP16" t="n">
-        <v>-0</v>
+        <v>-0.003704657935527651</v>
       </c>
       <c r="CQ16" t="n">
-        <v>-0.06395766407958284</v>
+        <v>-0.1186674801633818</v>
       </c>
       <c r="CR16" t="n">
-        <v>-0.06688922074774162</v>
+        <v>0</v>
       </c>
       <c r="CS16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CT16" t="n">
-        <v>-0.03795771890507486</v>
+        <v>-0</v>
       </c>
       <c r="CU16" t="n">
         <v>-0</v>
       </c>
       <c r="CV16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW16" t="n">
         <v>0</v>
       </c>
       <c r="CX16" t="n">
-        <v>0</v>
+        <v>-0.05369284244981106</v>
       </c>
       <c r="CY16" t="n">
-        <v>0</v>
+        <v>0.02648432469705512</v>
       </c>
       <c r="CZ16" t="n">
-        <v>-0.05332261397532718</v>
+        <v>0.02319440181703224</v>
       </c>
       <c r="DA16" t="n">
-        <v>0.04864033296193617</v>
+        <v>-0</v>
       </c>
       <c r="DB16" t="n">
         <v>0</v>
       </c>
       <c r="DC16" t="n">
-        <v>-0.09253040674033151</v>
+        <v>0</v>
       </c>
       <c r="DD16" t="n">
         <v>0</v>
       </c>
       <c r="DE16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DF16" t="n">
         <v>-0</v>
       </c>
       <c r="DG16" t="n">
-        <v>0</v>
+        <v>-0.03659946683637923</v>
       </c>
       <c r="DH16" t="n">
-        <v>0</v>
+        <v>0.04330106983779596</v>
       </c>
       <c r="DI16" t="n">
-        <v>-0.02558291595649759</v>
+        <v>-0.0056095734747765</v>
       </c>
       <c r="DJ16" t="n">
-        <v>0.04160137884421881</v>
+        <v>0</v>
       </c>
       <c r="DK16" t="n">
         <v>-0</v>
       </c>
       <c r="DL16" t="n">
-        <v>-0.008419460887850776</v>
+        <v>0</v>
       </c>
       <c r="DM16" t="n">
         <v>-0</v>
       </c>
       <c r="DN16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO16" t="n">
         <v>-0</v>
       </c>
       <c r="DP16" t="n">
-        <v>-0</v>
+        <v>-0.001868307312742693</v>
       </c>
       <c r="DQ16" t="n">
-        <v>-0</v>
+        <v>0.02712015548731022</v>
       </c>
       <c r="DR16" t="n">
-        <v>-0.04947385678677989</v>
+        <v>-0.1420395710614809</v>
       </c>
       <c r="DS16" t="n">
-        <v>0.01880473375102429</v>
+        <v>-0</v>
       </c>
       <c r="DT16" t="n">
         <v>-0</v>
       </c>
       <c r="DU16" t="n">
-        <v>-0.04766126428359429</v>
+        <v>-0</v>
       </c>
       <c r="DV16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW16" t="n">
         <v>-0</v>
@@ -9354,130 +9354,130 @@
         <v>0</v>
       </c>
       <c r="DY16" t="n">
-        <v>-0</v>
+        <v>0.06473487613125521</v>
       </c>
       <c r="DZ16" t="n">
-        <v>0</v>
+        <v>-0.002457176101492261</v>
       </c>
       <c r="EA16" t="n">
-        <v>-0.01838483442169286</v>
+        <v>-0.05875099378788502</v>
       </c>
       <c r="EB16" t="n">
-        <v>0.02555531178852073</v>
+        <v>0</v>
       </c>
       <c r="EC16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ED16" t="n">
-        <v>0.01500376000678765</v>
+        <v>0</v>
       </c>
       <c r="EE16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EF16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EG16" t="n">
         <v>0</v>
       </c>
       <c r="EH16" t="n">
-        <v>-0</v>
+        <v>-0.1110914001496662</v>
       </c>
       <c r="EI16" t="n">
-        <v>-0</v>
+        <v>0.04635818549333129</v>
       </c>
       <c r="EJ16" t="n">
-        <v>-0.047938666882166</v>
+        <v>0.05896696643402607</v>
       </c>
       <c r="EK16" t="n">
-        <v>0.05123611951413919</v>
+        <v>-0</v>
       </c>
       <c r="EL16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM16" t="n">
-        <v>-0.02545941436985749</v>
+        <v>-0</v>
       </c>
       <c r="EN16" t="n">
         <v>-0</v>
       </c>
       <c r="EO16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EQ16" t="n">
-        <v>-0</v>
+        <v>-0.006860286306501331</v>
       </c>
       <c r="ER16" t="n">
-        <v>-0</v>
+        <v>0.030564743052281</v>
       </c>
       <c r="ES16" t="n">
-        <v>-0.09931025076426693</v>
+        <v>0.02856841084114657</v>
       </c>
       <c r="ET16" t="n">
-        <v>0.0476423924343664</v>
+        <v>0</v>
       </c>
       <c r="EU16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EV16" t="n">
-        <v>-0.07212708727160866</v>
+        <v>-0</v>
       </c>
       <c r="EW16" t="n">
         <v>-0</v>
       </c>
       <c r="EX16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EZ16" t="n">
-        <v>-0</v>
+        <v>-0.06724749697577918</v>
       </c>
       <c r="FA16" t="n">
-        <v>-0</v>
+        <v>0.04259430827403628</v>
       </c>
       <c r="FB16" t="n">
-        <v>-0.07017396889300395</v>
+        <v>0.02112461941074566</v>
       </c>
       <c r="FC16" t="n">
-        <v>0.0542571589540632</v>
+        <v>0</v>
       </c>
       <c r="FD16" t="n">
         <v>-0</v>
       </c>
       <c r="FE16" t="n">
-        <v>-0.09804562329125945</v>
+        <v>0</v>
       </c>
       <c r="FF16" t="n">
         <v>-0</v>
       </c>
       <c r="FG16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FH16" t="n">
         <v>-0</v>
       </c>
       <c r="FI16" t="n">
-        <v>0</v>
+        <v>-0.004725861477240727</v>
       </c>
       <c r="FJ16" t="n">
-        <v>-0</v>
+        <v>0.005285212820973009</v>
       </c>
       <c r="FK16" t="n">
-        <v>-0.007629334091531847</v>
+        <v>0.07268587174485637</v>
       </c>
       <c r="FL16" t="n">
-        <v>0.01115333739290794</v>
+        <v>-0</v>
       </c>
       <c r="FM16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN16" t="n">
-        <v>-0.05263703538597584</v>
+        <v>0</v>
       </c>
       <c r="FO16" t="n">
         <v>0</v>
@@ -9486,55 +9486,55 @@
         <v>-0</v>
       </c>
       <c r="FQ16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FR16" t="n">
-        <v>-0</v>
+        <v>-0.004240599187395422</v>
       </c>
       <c r="FS16" t="n">
-        <v>-0</v>
+        <v>-0.007104763743604158</v>
       </c>
       <c r="FT16" t="n">
-        <v>0.0422723347026638</v>
+        <v>0.09031323925689508</v>
       </c>
       <c r="FU16" t="n">
-        <v>-0.01143996541763354</v>
+        <v>0</v>
       </c>
       <c r="FV16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FW16" t="n">
-        <v>-0.01262829620012957</v>
+        <v>0</v>
       </c>
       <c r="FX16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY16" t="n">
         <v>-0</v>
       </c>
       <c r="FZ16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GA16" t="n">
-        <v>0</v>
+        <v>0.04626409388790098</v>
       </c>
       <c r="GB16" t="n">
-        <v>0</v>
+        <v>-0.05480273634979909</v>
       </c>
       <c r="GC16" t="n">
         <v>-0</v>
       </c>
       <c r="GD16" t="n">
-        <v>-0.03874877815557856</v>
+        <v>-0</v>
       </c>
       <c r="GE16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF16" t="n">
-        <v>0.00217789988520687</v>
+        <v>0</v>
       </c>
       <c r="GG16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -9542,79 +9542,79 @@
         <v>0</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>0.185761519164108</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.1179658066494084</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0.1042638085285008</v>
+        <v>-0.08280529374313922</v>
       </c>
       <c r="F17" t="n">
-        <v>-0</v>
+        <v>-0.05906482528137331</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.4118372083104961</v>
+        <v>-0</v>
       </c>
       <c r="I17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>0.1296497095568202</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.07432185664359073</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0.1326302417742153</v>
+        <v>-0.05609002565123491</v>
       </c>
       <c r="O17" t="n">
-        <v>-0</v>
+        <v>-0.03579135002131095</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.4678361855179251</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>-0</v>
+        <v>0.01864672818254303</v>
       </c>
       <c r="U17" t="n">
         <v>-0</v>
       </c>
       <c r="V17" t="n">
-        <v>-0.06616456652069837</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0.1096122598486546</v>
+        <v>-0.02887223281028661</v>
       </c>
       <c r="X17" t="n">
-        <v>-0</v>
+        <v>0.02786397998979286</v>
       </c>
       <c r="Y17" t="n">
         <v>-0</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.1582726309889172</v>
+        <v>0</v>
       </c>
       <c r="AA17" t="n">
         <v>0</v>
@@ -9623,187 +9623,187 @@
         <v>-0</v>
       </c>
       <c r="AC17" t="n">
-        <v>0</v>
+        <v>0.0305368007271461</v>
       </c>
       <c r="AD17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AE17" t="n">
-        <v>-0.03287777084158015</v>
+        <v>0</v>
       </c>
       <c r="AF17" t="n">
-        <v>0.00199588251797685</v>
+        <v>0.02202576027203309</v>
       </c>
       <c r="AG17" t="n">
-        <v>-0</v>
+        <v>-0.003733405023159691</v>
       </c>
       <c r="AH17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AI17" t="n">
-        <v>-0.02685023790167852</v>
+        <v>-0</v>
       </c>
       <c r="AJ17" t="n">
         <v>0</v>
       </c>
       <c r="AK17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL17" t="n">
-        <v>0</v>
+        <v>0.02968125502208196</v>
       </c>
       <c r="AM17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN17" t="n">
-        <v>-0.01588494653081481</v>
+        <v>0</v>
       </c>
       <c r="AO17" t="n">
-        <v>-0.09095219200040398</v>
+        <v>-0.01786262120572332</v>
       </c>
       <c r="AP17" t="n">
-        <v>0</v>
+        <v>-0.02616291587461859</v>
       </c>
       <c r="AQ17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR17" t="n">
-        <v>0.04443576559399647</v>
+        <v>-0</v>
       </c>
       <c r="AS17" t="n">
         <v>0</v>
       </c>
       <c r="AT17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU17" t="n">
-        <v>0</v>
+        <v>0.1149478478685116</v>
       </c>
       <c r="AV17" t="n">
         <v>0</v>
       </c>
       <c r="AW17" t="n">
-        <v>-0.04764208706989503</v>
+        <v>0</v>
       </c>
       <c r="AX17" t="n">
-        <v>0.09916340191082766</v>
+        <v>-0.0609388444850836</v>
       </c>
       <c r="AY17" t="n">
-        <v>0</v>
+        <v>-0.04359743020474337</v>
       </c>
       <c r="AZ17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA17" t="n">
-        <v>0.2522559094603711</v>
+        <v>-0</v>
       </c>
       <c r="BB17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BC17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD17" t="n">
-        <v>0</v>
+        <v>0.04113471601615659</v>
       </c>
       <c r="BE17" t="n">
         <v>0</v>
       </c>
       <c r="BF17" t="n">
-        <v>-0.04356209698007142</v>
+        <v>0</v>
       </c>
       <c r="BG17" t="n">
-        <v>0.009647625282424403</v>
+        <v>-0.033586889642026</v>
       </c>
       <c r="BH17" t="n">
-        <v>-0</v>
+        <v>-0.008106854990944429</v>
       </c>
       <c r="BI17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ17" t="n">
-        <v>0.06795032334384875</v>
+        <v>0</v>
       </c>
       <c r="BK17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL17" t="n">
         <v>-0</v>
       </c>
       <c r="BM17" t="n">
-        <v>-0</v>
+        <v>0.05040382219578231</v>
       </c>
       <c r="BN17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BO17" t="n">
-        <v>-0.01906921047450268</v>
+        <v>0</v>
       </c>
       <c r="BP17" t="n">
-        <v>-0.0298479346440042</v>
+        <v>0.02459522723025488</v>
       </c>
       <c r="BQ17" t="n">
-        <v>0</v>
+        <v>0.01557470893925633</v>
       </c>
       <c r="BR17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS17" t="n">
-        <v>-0.09346239138302202</v>
+        <v>0</v>
       </c>
       <c r="BT17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU17" t="n">
         <v>-0</v>
       </c>
       <c r="BV17" t="n">
-        <v>-0</v>
+        <v>0.06765178711632917</v>
       </c>
       <c r="BW17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX17" t="n">
-        <v>-0.03126056750842748</v>
+        <v>0</v>
       </c>
       <c r="BY17" t="n">
-        <v>0.06671098593848648</v>
+        <v>-0.03238911692027842</v>
       </c>
       <c r="BZ17" t="n">
-        <v>-0</v>
+        <v>0.01062193215397759</v>
       </c>
       <c r="CA17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CB17" t="n">
-        <v>0.2085335186043989</v>
+        <v>-0</v>
       </c>
       <c r="CC17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CD17" t="n">
         <v>-0</v>
       </c>
       <c r="CE17" t="n">
-        <v>0</v>
+        <v>-0.02639414156272516</v>
       </c>
       <c r="CF17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CG17" t="n">
-        <v>0.02850201632031986</v>
+        <v>-0</v>
       </c>
       <c r="CH17" t="n">
-        <v>-0.05070965493104514</v>
+        <v>0.008559142952868666</v>
       </c>
       <c r="CI17" t="n">
-        <v>-0</v>
+        <v>0.01613051095244695</v>
       </c>
       <c r="CJ17" t="n">
         <v>-0</v>
       </c>
       <c r="CK17" t="n">
-        <v>-0.07964767769415602</v>
+        <v>0</v>
       </c>
       <c r="CL17" t="n">
         <v>0</v>
@@ -9812,52 +9812,52 @@
         <v>0</v>
       </c>
       <c r="CN17" t="n">
-        <v>0</v>
+        <v>-0.001681295693012171</v>
       </c>
       <c r="CO17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CP17" t="n">
-        <v>-0.0245701366266271</v>
+        <v>-0</v>
       </c>
       <c r="CQ17" t="n">
-        <v>-0.1597674936082739</v>
+        <v>-0.01275195504509536</v>
       </c>
       <c r="CR17" t="n">
-        <v>-0</v>
+        <v>-0.02093154650694527</v>
       </c>
       <c r="CS17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT17" t="n">
-        <v>-0.05138927545252452</v>
+        <v>-0</v>
       </c>
       <c r="CU17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CW17" t="n">
-        <v>-0</v>
+        <v>-0.01952888184489697</v>
       </c>
       <c r="CX17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CY17" t="n">
-        <v>0.03583322462808857</v>
+        <v>0</v>
       </c>
       <c r="CZ17" t="n">
-        <v>-0.06778058162993394</v>
+        <v>0.004553180121479291</v>
       </c>
       <c r="DA17" t="n">
-        <v>0</v>
+        <v>0.02295379872539117</v>
       </c>
       <c r="DB17" t="n">
         <v>0</v>
       </c>
       <c r="DC17" t="n">
-        <v>-0.09171027887105207</v>
+        <v>-0</v>
       </c>
       <c r="DD17" t="n">
         <v>0</v>
@@ -9866,241 +9866,241 @@
         <v>0</v>
       </c>
       <c r="DF17" t="n">
-        <v>-0</v>
+        <v>-0.009446839789090784</v>
       </c>
       <c r="DG17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DH17" t="n">
-        <v>0.02890323692381429</v>
+        <v>-0</v>
       </c>
       <c r="DI17" t="n">
-        <v>0.02631794484368063</v>
+        <v>0.008389746392797848</v>
       </c>
       <c r="DJ17" t="n">
-        <v>0</v>
+        <v>-0.004198287361923691</v>
       </c>
       <c r="DK17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DL17" t="n">
-        <v>-0.01565614200122375</v>
+        <v>-0</v>
       </c>
       <c r="DM17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN17" t="n">
         <v>-0</v>
       </c>
       <c r="DO17" t="n">
-        <v>0</v>
+        <v>-0.02386988757301259</v>
       </c>
       <c r="DP17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DQ17" t="n">
-        <v>-0.05932498586735532</v>
+        <v>-0</v>
       </c>
       <c r="DR17" t="n">
-        <v>-0.01349397326965751</v>
+        <v>0.02125622512683335</v>
       </c>
       <c r="DS17" t="n">
-        <v>-0</v>
+        <v>0.02144786251296666</v>
       </c>
       <c r="DT17" t="n">
         <v>-0</v>
       </c>
       <c r="DU17" t="n">
-        <v>-0.009225076980343279</v>
+        <v>-0</v>
       </c>
       <c r="DV17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW17" t="n">
         <v>-0</v>
       </c>
       <c r="DX17" t="n">
-        <v>0</v>
+        <v>-0.005336672732941069</v>
       </c>
       <c r="DY17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ17" t="n">
-        <v>-0.005322166803610519</v>
+        <v>-0</v>
       </c>
       <c r="EA17" t="n">
-        <v>0.0572148367040238</v>
+        <v>-0.02320332016238783</v>
       </c>
       <c r="EB17" t="n">
-        <v>0</v>
+        <v>-0.01488335116879579</v>
       </c>
       <c r="EC17" t="n">
         <v>0</v>
       </c>
       <c r="ED17" t="n">
-        <v>0.0374162690774531</v>
+        <v>0</v>
       </c>
       <c r="EE17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EF17" t="n">
         <v>0</v>
       </c>
       <c r="EG17" t="n">
-        <v>0</v>
+        <v>-0.01621237883264771</v>
       </c>
       <c r="EH17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EI17" t="n">
-        <v>0.08580784452915273</v>
+        <v>0</v>
       </c>
       <c r="EJ17" t="n">
-        <v>0.02813551612866927</v>
+        <v>0.01577216402764448</v>
       </c>
       <c r="EK17" t="n">
-        <v>-0</v>
+        <v>0.007292625230345929</v>
       </c>
       <c r="EL17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM17" t="n">
-        <v>-0.1296101109278287</v>
+        <v>0</v>
       </c>
       <c r="EN17" t="n">
         <v>-0</v>
       </c>
       <c r="EO17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP17" t="n">
-        <v>-0</v>
+        <v>0.0006805769808963989</v>
       </c>
       <c r="EQ17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER17" t="n">
-        <v>-0.07250837688031431</v>
+        <v>-0</v>
       </c>
       <c r="ES17" t="n">
-        <v>-0.1067390825235123</v>
+        <v>-0.0091960118702764</v>
       </c>
       <c r="ET17" t="n">
-        <v>-0</v>
+        <v>-0.02677545493915625</v>
       </c>
       <c r="EU17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EV17" t="n">
-        <v>0.05827904197057653</v>
+        <v>0</v>
       </c>
       <c r="EW17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EY17" t="n">
-        <v>0</v>
+        <v>-0.01688998410672381</v>
       </c>
       <c r="EZ17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FA17" t="n">
-        <v>0.03111797634482825</v>
+        <v>-0</v>
       </c>
       <c r="FB17" t="n">
-        <v>-0.05732457656523135</v>
+        <v>0.001741843322154773</v>
       </c>
       <c r="FC17" t="n">
-        <v>-0</v>
+        <v>0.0234164705170184</v>
       </c>
       <c r="FD17" t="n">
         <v>-0</v>
       </c>
       <c r="FE17" t="n">
-        <v>-0.09717212269721676</v>
+        <v>0</v>
       </c>
       <c r="FF17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FG17" t="n">
         <v>0</v>
       </c>
       <c r="FH17" t="n">
-        <v>-0</v>
+        <v>-0.02039740211811467</v>
       </c>
       <c r="FI17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ17" t="n">
-        <v>0.03458811676299191</v>
+        <v>-0</v>
       </c>
       <c r="FK17" t="n">
-        <v>-0.04444483140970903</v>
+        <v>-0.03842939906323027</v>
       </c>
       <c r="FL17" t="n">
-        <v>0</v>
+        <v>0.01951696093881562</v>
       </c>
       <c r="FM17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN17" t="n">
-        <v>-0.05372483813608945</v>
+        <v>-0</v>
       </c>
       <c r="FO17" t="n">
         <v>0</v>
       </c>
       <c r="FP17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ17" t="n">
-        <v>0</v>
+        <v>0.002203766585031614</v>
       </c>
       <c r="FR17" t="n">
         <v>-0</v>
       </c>
       <c r="FS17" t="n">
-        <v>-0.05392951350019006</v>
+        <v>-0</v>
       </c>
       <c r="FT17" t="n">
-        <v>-0.002839969301255975</v>
+        <v>0.001105556594987681</v>
       </c>
       <c r="FU17" t="n">
-        <v>-0</v>
+        <v>0.01600898399904726</v>
       </c>
       <c r="FV17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FW17" t="n">
-        <v>-0.01314677852333627</v>
+        <v>-0</v>
       </c>
       <c r="FX17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FZ17" t="n">
-        <v>-0</v>
+        <v>-0.02248658517898526</v>
       </c>
       <c r="GA17" t="n">
         <v>0</v>
       </c>
       <c r="GB17" t="n">
-        <v>-0.02642526252563965</v>
+        <v>0</v>
       </c>
       <c r="GC17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD17" t="n">
-        <v>-0</v>
+        <v>-0.02490499780259479</v>
       </c>
       <c r="GE17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF17" t="n">
-        <v>-0.03107668662603748</v>
+        <v>0</v>
       </c>
       <c r="GG17" t="n">
         <v>0</v>
